--- a/temp/SERVICIOS 2025.xlsx
+++ b/temp/SERVICIOS 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/481498B3C4373867/DOCUMENTOS_EXCEL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2578" documentId="8_{FFC92CA8-A633-40BE-8E56-4F9D61ABD7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CDA4F68-BB81-4FE5-AEDB-F6B483EC049E}"/>
+  <xr:revisionPtr revIDLastSave="2586" documentId="8_{FFC92CA8-A633-40BE-8E56-4F9D61ABD7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F790C3A8-7746-9B46-9B0D-E3B224C3EDF2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="8" xr2:uid="{58C13FB9-58C5-4D53-86A7-FA1AAB49DCCE}"/>
   </bookViews>
@@ -26,10 +26,21 @@
     <sheet name="NOVIEMBRE" sheetId="11" r:id="rId11"/>
     <sheet name="DICIEMBRE" sheetId="13" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
@@ -39,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="674">
   <si>
     <t>FECHA</t>
   </si>
@@ -2052,6 +2063,15 @@
   </si>
   <si>
     <t>JG  hace transferencia de $185.600 para copletar el pago del servicio a ABRECAR el cliente ya le habia abonado $450.000 este pago incluye los $60.000 de la bateria y la caja que se tomaron de la oficina y los $40.000 de la visita inicial se hizo por transferencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALLE 23 SUR # 6 - 31 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yamcar Carlos Díaz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajuste de puertas de vidrio corredizas entrada y chapa mantenimiento </t>
   </si>
 </sst>
 </file>
@@ -2217,40 +2237,75 @@
   </cellStyles>
   <dxfs count="546">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2273,16 +2328,75 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2609,7 +2723,10 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -2664,19 +2781,30 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2704,136 +2832,28 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -4744,7 +4764,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D3DC7B56-6A27-47EA-8A62-6146CB27CD41}" name="Tabla14567891011" displayName="Tabla14567891011" ref="A1:S41" totalsRowCount="1" headerRowDxfId="121" dataDxfId="120">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D3DC7B56-6A27-47EA-8A62-6146CB27CD41}" name="Tabla14567891011" displayName="Tabla14567891011" ref="A1:S41" totalsRowCount="1" headerRowDxfId="104" dataDxfId="103">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4767,38 +4787,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{94F08EE5-D270-4BBA-BFF0-760C6EE7067B}" name="FECHA" totalsRowLabel="Total" dataDxfId="119" totalsRowDxfId="118"/>
-    <tableColumn id="2" xr3:uid="{4C53B68C-163E-46DC-B529-42A48BCB11F4}" name="DIRECCION" dataDxfId="117"/>
-    <tableColumn id="3" xr3:uid="{79BD3134-74F1-4163-BEA0-1250C669D816}" name="NOMBRE CLIENTE" dataDxfId="116"/>
-    <tableColumn id="4" xr3:uid="{9B7351AF-69A8-42A0-88CF-7F1D324558CD}" name="TORRE/APTO" dataDxfId="115"/>
-    <tableColumn id="5" xr3:uid="{3FC795B0-64D5-412F-967D-88FDCE6188CC}" name="SERVICIO REALIZADO" dataDxfId="114"/>
-    <tableColumn id="6" xr3:uid="{F8E4C084-C1E1-410A-9AB8-48E3E1C03449}" name="DOMICILIO" dataDxfId="113" totalsRowDxfId="112" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{3923866B-5E04-4E69-B31A-D524F1DB0AAC}" name="VALOR SERVICIO" dataDxfId="111" totalsRowDxfId="110"/>
-    <tableColumn id="8" xr3:uid="{8D9C03FA-D5F4-4C9D-B0D6-0B3FE724EB6D}" name="MATERIALES" dataDxfId="109"/>
-    <tableColumn id="9" xr3:uid="{416A2E87-138A-49CF-B9F5-D318A063AD9F}" name="VALOR MATERIALES" dataDxfId="108"/>
-    <tableColumn id="10" xr3:uid="{A82F5C41-8889-4BC2-8CD0-E17F28FC8B69}" name="IVA 19%" dataDxfId="107"/>
-    <tableColumn id="11" xr3:uid="{8AE9AA77-4CCE-4933-9E37-2424517466ED}" name="PORTERIA" dataDxfId="106" totalsRowDxfId="105"/>
-    <tableColumn id="12" xr3:uid="{9AEF8C4D-8BF9-4E7D-B1C4-77744EC693C7}" name="FORMA DE PAGO " dataDxfId="104"/>
-    <tableColumn id="13" xr3:uid="{E6A473EB-A02F-4383-8D91-3F21721D15F3}" name="TOTAL SERVICIO" dataDxfId="103" totalsRowDxfId="102">
+    <tableColumn id="1" xr3:uid="{94F08EE5-D270-4BBA-BFF0-760C6EE7067B}" name="FECHA" totalsRowLabel="Total" dataDxfId="102" totalsRowDxfId="101"/>
+    <tableColumn id="2" xr3:uid="{4C53B68C-163E-46DC-B529-42A48BCB11F4}" name="DIRECCION" dataDxfId="100"/>
+    <tableColumn id="3" xr3:uid="{79BD3134-74F1-4163-BEA0-1250C669D816}" name="NOMBRE CLIENTE" dataDxfId="99"/>
+    <tableColumn id="4" xr3:uid="{9B7351AF-69A8-42A0-88CF-7F1D324558CD}" name="TORRE/APTO" dataDxfId="98"/>
+    <tableColumn id="5" xr3:uid="{3FC795B0-64D5-412F-967D-88FDCE6188CC}" name="SERVICIO REALIZADO" dataDxfId="97"/>
+    <tableColumn id="6" xr3:uid="{F8E4C084-C1E1-410A-9AB8-48E3E1C03449}" name="DOMICILIO" dataDxfId="96" totalsRowDxfId="95" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{3923866B-5E04-4E69-B31A-D524F1DB0AAC}" name="VALOR SERVICIO" dataDxfId="94" totalsRowDxfId="93"/>
+    <tableColumn id="8" xr3:uid="{8D9C03FA-D5F4-4C9D-B0D6-0B3FE724EB6D}" name="MATERIALES" dataDxfId="92"/>
+    <tableColumn id="9" xr3:uid="{416A2E87-138A-49CF-B9F5-D318A063AD9F}" name="VALOR MATERIALES" dataDxfId="91"/>
+    <tableColumn id="10" xr3:uid="{A82F5C41-8889-4BC2-8CD0-E17F28FC8B69}" name="IVA 19%" dataDxfId="90"/>
+    <tableColumn id="11" xr3:uid="{8AE9AA77-4CCE-4933-9E37-2424517466ED}" name="PORTERIA" dataDxfId="89" totalsRowDxfId="88"/>
+    <tableColumn id="12" xr3:uid="{9AEF8C4D-8BF9-4E7D-B1C4-77744EC693C7}" name="FORMA DE PAGO " dataDxfId="87"/>
+    <tableColumn id="13" xr3:uid="{E6A473EB-A02F-4383-8D91-3F21721D15F3}" name="TOTAL SERVICIO" dataDxfId="86" totalsRowDxfId="85">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{D278A045-9615-406B-B68A-49A1BAA68123}" name="X50%/X25%" dataDxfId="101" totalsRowDxfId="100"/>
-    <tableColumn id="15" xr3:uid="{27DD6F2B-55CE-4F91-802C-767D2081AE8F}" name="PARA JG" dataDxfId="99" totalsRowDxfId="98">
+    <tableColumn id="14" xr3:uid="{D278A045-9615-406B-B68A-49A1BAA68123}" name="X50%/X25%" dataDxfId="84" totalsRowDxfId="83"/>
+    <tableColumn id="15" xr3:uid="{27DD6F2B-55CE-4F91-802C-767D2081AE8F}" name="PARA JG" dataDxfId="82" totalsRowDxfId="81">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{A3F60C5A-D316-497E-B0E4-A3F9BAD84525}" name="PARA ABRECAR" dataDxfId="97" totalsRowDxfId="96">
+    <tableColumn id="16" xr3:uid="{A3F60C5A-D316-497E-B0E4-A3F9BAD84525}" name="PARA ABRECAR" dataDxfId="80" totalsRowDxfId="79">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{10CB3E58-1A46-4C24-BA4F-AC5B36B8FF91}" name="ESTADO DEL SERVICIO" dataDxfId="95" totalsRowDxfId="94"/>
-    <tableColumn id="18" xr3:uid="{8BFE1AAE-4E74-4C50-BDE1-0DB10D889E57}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="93" totalsRowDxfId="92"/>
-    <tableColumn id="19" xr3:uid="{206EECE6-638F-4588-8E77-382586BB3883}" name="NOTAS " totalsRowFunction="count" dataDxfId="91"/>
+    <tableColumn id="17" xr3:uid="{10CB3E58-1A46-4C24-BA4F-AC5B36B8FF91}" name="ESTADO DEL SERVICIO" dataDxfId="78" totalsRowDxfId="77"/>
+    <tableColumn id="18" xr3:uid="{8BFE1AAE-4E74-4C50-BDE1-0DB10D889E57}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="76" totalsRowDxfId="75"/>
+    <tableColumn id="19" xr3:uid="{206EECE6-638F-4588-8E77-382586BB3883}" name="NOTAS " totalsRowFunction="count" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{DDAE932D-094A-412C-ACB3-D50B4144C427}" name="Tabla1456789101112" displayName="Tabla1456789101112" ref="A1:S41" totalsRowCount="1" headerRowDxfId="84" dataDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{DDAE932D-094A-412C-ACB3-D50B4144C427}" name="Tabla1456789101112" displayName="Tabla1456789101112" ref="A1:S41" totalsRowCount="1" headerRowDxfId="67" dataDxfId="66">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4821,38 +4841,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{A4610472-FCCC-49A0-A01F-092A0D751A98}" name="FECHA" totalsRowLabel="Total" dataDxfId="82" totalsRowDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{F9E90005-75E9-4DFD-BEDF-137ACD9E05E4}" name="DIRECCION" dataDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{F27B45B3-7483-405C-8490-165648DB5719}" name="NOMBRE CLIENTE" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{0FACF2B2-755C-4F0C-BA8A-14DC07017FD9}" name="TORRE/APTO" dataDxfId="78"/>
-    <tableColumn id="5" xr3:uid="{00E06524-BE36-4FF3-976B-47960F284CE0}" name="SERVICIO REALIZADO" dataDxfId="77"/>
-    <tableColumn id="6" xr3:uid="{5E93EC92-00AD-4B71-80D9-5F0B68DA5499}" name="DOMICILIO" dataDxfId="76" totalsRowDxfId="75" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{FF6104F0-B72E-428D-8D64-20449974A374}" name="VALOR SERVICIO" dataDxfId="74" totalsRowDxfId="73"/>
-    <tableColumn id="8" xr3:uid="{CBA086A4-170D-485A-BDFD-EA146BD0B019}" name="MATERIALES" dataDxfId="72"/>
-    <tableColumn id="9" xr3:uid="{21A2EE02-A6EA-4899-886D-AFD1BA8755C3}" name="VALOR MATERIALES" dataDxfId="71"/>
-    <tableColumn id="10" xr3:uid="{1D00EAAB-65B1-4167-A677-7DFEA1816D65}" name="IVA 19%" dataDxfId="70"/>
-    <tableColumn id="11" xr3:uid="{2009E649-7D60-4DDB-8525-08B12BD6FA59}" name="PORTERIA" dataDxfId="69" totalsRowDxfId="68"/>
-    <tableColumn id="12" xr3:uid="{54BC3D94-5458-4653-8053-00D38144E7B3}" name="FORMA DE PAGO " dataDxfId="67"/>
-    <tableColumn id="13" xr3:uid="{A1498961-0B31-4EC8-87A8-0CA896C0FA28}" name="TOTAL SERVICIO" dataDxfId="66" totalsRowDxfId="65">
+    <tableColumn id="1" xr3:uid="{A4610472-FCCC-49A0-A01F-092A0D751A98}" name="FECHA" totalsRowLabel="Total" dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="2" xr3:uid="{F9E90005-75E9-4DFD-BEDF-137ACD9E05E4}" name="DIRECCION" dataDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{F27B45B3-7483-405C-8490-165648DB5719}" name="NOMBRE CLIENTE" dataDxfId="62"/>
+    <tableColumn id="4" xr3:uid="{0FACF2B2-755C-4F0C-BA8A-14DC07017FD9}" name="TORRE/APTO" dataDxfId="61"/>
+    <tableColumn id="5" xr3:uid="{00E06524-BE36-4FF3-976B-47960F284CE0}" name="SERVICIO REALIZADO" dataDxfId="60"/>
+    <tableColumn id="6" xr3:uid="{5E93EC92-00AD-4B71-80D9-5F0B68DA5499}" name="DOMICILIO" dataDxfId="59" totalsRowDxfId="58" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{FF6104F0-B72E-428D-8D64-20449974A374}" name="VALOR SERVICIO" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="8" xr3:uid="{CBA086A4-170D-485A-BDFD-EA146BD0B019}" name="MATERIALES" dataDxfId="55"/>
+    <tableColumn id="9" xr3:uid="{21A2EE02-A6EA-4899-886D-AFD1BA8755C3}" name="VALOR MATERIALES" dataDxfId="54"/>
+    <tableColumn id="10" xr3:uid="{1D00EAAB-65B1-4167-A677-7DFEA1816D65}" name="IVA 19%" dataDxfId="53"/>
+    <tableColumn id="11" xr3:uid="{2009E649-7D60-4DDB-8525-08B12BD6FA59}" name="PORTERIA" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="12" xr3:uid="{54BC3D94-5458-4653-8053-00D38144E7B3}" name="FORMA DE PAGO " dataDxfId="50"/>
+    <tableColumn id="13" xr3:uid="{A1498961-0B31-4EC8-87A8-0CA896C0FA28}" name="TOTAL SERVICIO" dataDxfId="49" totalsRowDxfId="48">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{DCA18CC6-6586-4991-B645-0EFDB3C671BA}" name="X50%/X25%" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="15" xr3:uid="{EBD3F72E-644C-4987-97C9-741E83FF57A3}" name="PARA JG" dataDxfId="62" totalsRowDxfId="61">
+    <tableColumn id="14" xr3:uid="{DCA18CC6-6586-4991-B645-0EFDB3C671BA}" name="X50%/X25%" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="15" xr3:uid="{EBD3F72E-644C-4987-97C9-741E83FF57A3}" name="PARA JG" dataDxfId="45" totalsRowDxfId="44">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{582650E7-2FDF-4443-B176-6BD13705FC6A}" name="PARA ABRECAR" dataDxfId="60" totalsRowDxfId="59">
+    <tableColumn id="16" xr3:uid="{582650E7-2FDF-4443-B176-6BD13705FC6A}" name="PARA ABRECAR" dataDxfId="43" totalsRowDxfId="42">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{C9C0844F-A579-409B-A3CA-4CABDCA9A7E7}" name="ESTADO DEL SERVICIO" dataDxfId="58" totalsRowDxfId="57"/>
-    <tableColumn id="18" xr3:uid="{9BE8DE12-7A02-496D-8A4C-CF6A0FC21298}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="56" totalsRowDxfId="55"/>
-    <tableColumn id="19" xr3:uid="{D05F4CC4-F427-42DD-B60E-F5C5874B0A10}" name="NOTAS " totalsRowFunction="count" dataDxfId="54"/>
+    <tableColumn id="17" xr3:uid="{C9C0844F-A579-409B-A3CA-4CABDCA9A7E7}" name="ESTADO DEL SERVICIO" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="18" xr3:uid="{9BE8DE12-7A02-496D-8A4C-CF6A0FC21298}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="19" xr3:uid="{D05F4CC4-F427-42DD-B60E-F5C5874B0A10}" name="NOTAS " totalsRowFunction="count" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{4DF269EC-EC4E-479C-AE4F-1A1087AFCEE8}" name="Tabla145678910111213" displayName="Tabla145678910111213" ref="A1:S41" totalsRowCount="1" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{4DF269EC-EC4E-479C-AE4F-1A1087AFCEE8}" name="Tabla145678910111213" displayName="Tabla145678910111213" ref="A1:S41" totalsRowCount="1" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4875,31 +4895,31 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{5055830B-9862-472C-85F0-117E805E707D}" name="FECHA" totalsRowLabel="Total" dataDxfId="45" totalsRowDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{689C0FB3-87A6-4631-B1F6-2F9FCAA7E7B1}" name="DIRECCION" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{C1D134A7-FB44-4236-BBB6-7369A781153D}" name="NOMBRE CLIENTE" dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{BD93EBE9-5715-4A8F-8BCE-7ED7B4E1EE00}" name="TORRE/APTO" dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{D8732EE5-4B90-470C-AF7D-A9E30BB207AC}" name="SERVICIO REALIZADO" dataDxfId="40"/>
-    <tableColumn id="6" xr3:uid="{AAF6961D-5DCD-413C-8B1C-ACEFB0A3CFD9}" name="DOMICILIO" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{65ABEA60-8C9B-41B7-A56F-8019CBE25FF3}" name="VALOR SERVICIO" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{37401935-4C50-4C18-9EE8-ACDC29848F03}" name="MATERIALES" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{A93E3FC1-DC4F-4F49-A038-306F3DB5A2D6}" name="VALOR MATERIALES" dataDxfId="34"/>
-    <tableColumn id="10" xr3:uid="{D4E56074-FD4E-417D-B429-880CC1DD6054}" name="IVA 19%" dataDxfId="33"/>
-    <tableColumn id="11" xr3:uid="{A07BC7C7-BC63-43A4-A1DF-7229BD46E6AD}" name="PORTERIA" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="12" xr3:uid="{2AFC385D-3407-49B7-BF00-60E625E847AA}" name="FORMA DE PAGO " dataDxfId="30"/>
-    <tableColumn id="13" xr3:uid="{E2603AC2-0F91-4E56-9786-C317F0769BE6}" name="TOTAL SERVICIO" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="1" xr3:uid="{5055830B-9862-472C-85F0-117E805E707D}" name="FECHA" totalsRowLabel="Total" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{689C0FB3-87A6-4631-B1F6-2F9FCAA7E7B1}" name="DIRECCION" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{C1D134A7-FB44-4236-BBB6-7369A781153D}" name="NOMBRE CLIENTE" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{BD93EBE9-5715-4A8F-8BCE-7ED7B4E1EE00}" name="TORRE/APTO" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{D8732EE5-4B90-470C-AF7D-A9E30BB207AC}" name="SERVICIO REALIZADO" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{AAF6961D-5DCD-413C-8B1C-ACEFB0A3CFD9}" name="DOMICILIO" dataDxfId="22" totalsRowDxfId="21" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{65ABEA60-8C9B-41B7-A56F-8019CBE25FF3}" name="VALOR SERVICIO" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{37401935-4C50-4C18-9EE8-ACDC29848F03}" name="MATERIALES" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{A93E3FC1-DC4F-4F49-A038-306F3DB5A2D6}" name="VALOR MATERIALES" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{D4E56074-FD4E-417D-B429-880CC1DD6054}" name="IVA 19%" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{A07BC7C7-BC63-43A4-A1DF-7229BD46E6AD}" name="PORTERIA" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{2AFC385D-3407-49B7-BF00-60E625E847AA}" name="FORMA DE PAGO " dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{E2603AC2-0F91-4E56-9786-C317F0769BE6}" name="TOTAL SERVICIO" dataDxfId="12" totalsRowDxfId="11">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{FD5B7BBF-B716-48D2-B942-472BC782EC98}" name="X50%/X25%" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="15" xr3:uid="{7D676C93-BA72-46B0-9F8A-8787870D86D0}" name="PARA JG" dataDxfId="25" totalsRowDxfId="24">
+    <tableColumn id="14" xr3:uid="{FD5B7BBF-B716-48D2-B942-472BC782EC98}" name="X50%/X25%" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{7D676C93-BA72-46B0-9F8A-8787870D86D0}" name="PARA JG" dataDxfId="8" totalsRowDxfId="7">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{BE3B5891-889F-41B1-B172-6BB026E6D50C}" name="PARA ABRECAR" dataDxfId="23" totalsRowDxfId="22">
+    <tableColumn id="16" xr3:uid="{BE3B5891-889F-41B1-B172-6BB026E6D50C}" name="PARA ABRECAR" dataDxfId="6" totalsRowDxfId="5">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{A5F392B8-0A11-4121-9E91-E628125AA82C}" name="ESTADO DEL SERVICIO" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="18" xr3:uid="{553C6916-0493-4196-B3C4-4AC2BD6C71D7}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="19" xr3:uid="{131F3898-DF9C-4BB0-BA07-9F2E882DFC9F}" name="NOTAS " totalsRowFunction="count" dataDxfId="17"/>
+    <tableColumn id="17" xr3:uid="{A5F392B8-0A11-4121-9E91-E628125AA82C}" name="ESTADO DEL SERVICIO" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{553C6916-0493-4196-B3C4-4AC2BD6C71D7}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{131F3898-DF9C-4BB0-BA07-9F2E882DFC9F}" name="NOTAS " totalsRowFunction="count" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5307,31 +5327,31 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{C2D31F11-B0BA-45D5-A040-55DD65048FCC}" name="FECHA" totalsRowLabel="Total" dataDxfId="146" totalsRowDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{B04728B5-7F2E-44D9-B119-EB74F66021FF}" name="DIRECCION" dataDxfId="145" totalsRowDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{34B0BF1B-1E1D-4372-8717-57CDDED3EB64}" name="NOMBRE CLIENTE" dataDxfId="144" totalsRowDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{967AF0A4-2F6B-4902-9EE6-06F9B0ACEC7A}" name="TORRE/APTO" dataDxfId="143"/>
-    <tableColumn id="5" xr3:uid="{B7841EF7-1A13-48C8-9A8F-D8ECA1354F32}" name="SERVICIO REALIZADO" dataDxfId="142" totalsRowDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{A5BD60C3-0F5D-4F7B-93D1-EAD5F5FF1B0B}" name="DOMICILIO" dataDxfId="141" totalsRowDxfId="12" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{FE128F0E-0F30-41E9-92BC-73866EC54093}" name="VALOR SERVICIO" dataDxfId="140" totalsRowDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{DBFFBE5A-0B3E-47AA-B221-A8BE3A93FA28}" name="MATERIALES" dataDxfId="139" totalsRowDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{E9AB51AF-E4E3-40DA-AB54-3DB3F1C528DD}" name="VALOR MATERIALES" dataDxfId="138" totalsRowDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{0743077C-2C9E-4460-A4B5-D885E65A0FDD}" name="IVA 19%" dataDxfId="137" totalsRowDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{5A1B6F72-1F83-47CD-8CB7-E840972ECC16}" name="PORTERIA" dataDxfId="136" totalsRowDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{85785C1E-0B1B-4AE4-9899-F57CBFBDFCAB}" name="FORMA DE PAGO " dataDxfId="135"/>
-    <tableColumn id="13" xr3:uid="{14E1E447-46F1-4DAB-8DAF-E7F4E090CDF7}" name="TOTAL SERVICIO" dataDxfId="134" totalsRowDxfId="6">
+    <tableColumn id="1" xr3:uid="{C2D31F11-B0BA-45D5-A040-55DD65048FCC}" name="FECHA" totalsRowLabel="Total" dataDxfId="146" totalsRowDxfId="145"/>
+    <tableColumn id="2" xr3:uid="{B04728B5-7F2E-44D9-B119-EB74F66021FF}" name="DIRECCION" dataDxfId="144" totalsRowDxfId="143"/>
+    <tableColumn id="3" xr3:uid="{34B0BF1B-1E1D-4372-8717-57CDDED3EB64}" name="NOMBRE CLIENTE" dataDxfId="142" totalsRowDxfId="141"/>
+    <tableColumn id="4" xr3:uid="{967AF0A4-2F6B-4902-9EE6-06F9B0ACEC7A}" name="TORRE/APTO" dataDxfId="140"/>
+    <tableColumn id="5" xr3:uid="{B7841EF7-1A13-48C8-9A8F-D8ECA1354F32}" name="SERVICIO REALIZADO" dataDxfId="139" totalsRowDxfId="138"/>
+    <tableColumn id="6" xr3:uid="{A5BD60C3-0F5D-4F7B-93D1-EAD5F5FF1B0B}" name="DOMICILIO" dataDxfId="137" totalsRowDxfId="136" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{FE128F0E-0F30-41E9-92BC-73866EC54093}" name="VALOR SERVICIO" dataDxfId="135" totalsRowDxfId="134"/>
+    <tableColumn id="8" xr3:uid="{DBFFBE5A-0B3E-47AA-B221-A8BE3A93FA28}" name="MATERIALES" dataDxfId="133" totalsRowDxfId="132"/>
+    <tableColumn id="9" xr3:uid="{E9AB51AF-E4E3-40DA-AB54-3DB3F1C528DD}" name="VALOR MATERIALES" dataDxfId="131" totalsRowDxfId="130"/>
+    <tableColumn id="10" xr3:uid="{0743077C-2C9E-4460-A4B5-D885E65A0FDD}" name="IVA 19%" dataDxfId="129" totalsRowDxfId="128"/>
+    <tableColumn id="11" xr3:uid="{5A1B6F72-1F83-47CD-8CB7-E840972ECC16}" name="PORTERIA" dataDxfId="127" totalsRowDxfId="126"/>
+    <tableColumn id="12" xr3:uid="{85785C1E-0B1B-4AE4-9899-F57CBFBDFCAB}" name="FORMA DE PAGO " dataDxfId="125"/>
+    <tableColumn id="13" xr3:uid="{14E1E447-46F1-4DAB-8DAF-E7F4E090CDF7}" name="TOTAL SERVICIO" dataDxfId="124" totalsRowDxfId="123">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{D122C8FB-7087-4CB5-A785-D8505B2DF602}" name="X50%/X25%" dataDxfId="133" totalsRowDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{3B9C0FF4-0A40-425E-AF56-D6DD8681A011}" name="PARA JG" dataDxfId="132" totalsRowDxfId="4">
+    <tableColumn id="14" xr3:uid="{D122C8FB-7087-4CB5-A785-D8505B2DF602}" name="X50%/X25%" dataDxfId="122" totalsRowDxfId="121"/>
+    <tableColumn id="15" xr3:uid="{3B9C0FF4-0A40-425E-AF56-D6DD8681A011}" name="PARA JG" dataDxfId="120" totalsRowDxfId="119">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{24D7D408-20DD-481D-ADD8-31427D9706CB}" name="PARA ABRECAR" dataDxfId="131" totalsRowDxfId="3">
+    <tableColumn id="16" xr3:uid="{24D7D408-20DD-481D-ADD8-31427D9706CB}" name="PARA ABRECAR" dataDxfId="118" totalsRowDxfId="117">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{3E22CA66-02BA-4F3A-BC78-1C5E81DF6614}" name="ESTADO DEL SERVICIO" dataDxfId="130" totalsRowDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{BC2DF013-F795-4D1C-9028-1375AF4523CB}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="129" totalsRowDxfId="1"/>
-    <tableColumn id="19" xr3:uid="{72057D85-7D90-4121-8CBD-7448786FF9BC}" name="NOTAS " totalsRowFunction="count" dataDxfId="128" totalsRowDxfId="0"/>
+    <tableColumn id="17" xr3:uid="{3E22CA66-02BA-4F3A-BC78-1C5E81DF6614}" name="ESTADO DEL SERVICIO" dataDxfId="116" totalsRowDxfId="115"/>
+    <tableColumn id="18" xr3:uid="{BC2DF013-F795-4D1C-9028-1375AF4523CB}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="114" totalsRowDxfId="113"/>
+    <tableColumn id="19" xr3:uid="{72057D85-7D90-4121-8CBD-7448786FF9BC}" name="NOTAS " totalsRowFunction="count" dataDxfId="112" totalsRowDxfId="111"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8668,22 +8688,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="127" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9977,22 +9997,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="90" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11286,22 +11306,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="53" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23639,8 +23659,8 @@
   </sheetPr>
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R11" sqref="R10:R11"/>
+    <sheetView tabSelected="1" topLeftCell="L4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24217,30 +24237,46 @@
         <v>670</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="14"/>
-      <c r="G11" s="17"/>
+    <row r="11" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>45918</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>671</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>673</v>
+      </c>
+      <c r="G11" s="17">
+        <v>180000</v>
+      </c>
       <c r="H11" s="14"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="14"/>
+      <c r="L11" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="M11" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="14"/>
-      <c r="O11" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>180000</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="6">
+        <f t="shared" si="1"/>
+        <v>90000</v>
       </c>
       <c r="P11" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="Q11" s="14"/>
       <c r="R11" s="2"/>

--- a/temp/SERVICIOS 2025.xlsx
+++ b/temp/SERVICIOS 2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/481498B3C4373867/DOCUMENTOS_EXCEL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3674" documentId="8_{FFC92CA8-A633-40BE-8E56-4F9D61ABD7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6558F94B-2B41-CF48-8D86-62635FFC5A00}"/>
+  <xr:revisionPtr revIDLastSave="3697" documentId="8_{FFC92CA8-A633-40BE-8E56-4F9D61ABD7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{362A960E-BFDE-4008-AC5C-31E65B2A90FE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="11" xr2:uid="{58C13FB9-58C5-4D53-86A7-FA1AAB49DCCE}"/>
   </bookViews>
@@ -42,12 +42,15 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2217" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="931">
   <si>
     <t>FECHA</t>
   </si>
@@ -2822,6 +2825,24 @@
   </si>
   <si>
     <t xml:space="preserve">apertura de taxi </t>
+  </si>
+  <si>
+    <t>CALLE 26 # 69B - 53</t>
+  </si>
+  <si>
+    <t>GEODIS - Johan Roncancio</t>
+  </si>
+  <si>
+    <t>OFICINA 901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mantenimiento preventivo de cabezal automático entrada recepción </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JG hizo transferencia desde Nequi de hija a Nequi de JK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JG hizo transferencia desde Nequi de hija  a Nequi de JK incluye el pago de las retenciones </t>
   </si>
 </sst>
 </file>
@@ -2829,8 +2850,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="9">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
@@ -2874,8 +2895,8 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3007,34 +3028,83 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3057,16 +3127,42 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -3109,837 +3205,6 @@
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$$-540A]#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4082,6 +3347,48 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -4227,6 +3534,48 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -4370,6 +3719,48 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -4516,6 +3907,48 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -4659,6 +4092,48 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -4802,6 +4277,48 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -4944,6 +4461,258 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -5089,6 +4858,90 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -5242,6 +5095,48 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -5391,6 +5286,90 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -5528,6 +5507,48 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -5542,7 +5563,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}" name="Tabla1" displayName="Tabla1" ref="A1:S41" totalsRowCount="1" headerRowDxfId="564" dataDxfId="563">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}" name="Tabla1" displayName="Tabla1" ref="A1:S41" totalsRowCount="1" headerRowDxfId="558" dataDxfId="557">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -5565,38 +5586,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{88EFFA51-78C5-4D82-BB42-F4AEE89D019D}" name="FECHA" totalsRowLabel="Total" dataDxfId="562" totalsRowDxfId="561"/>
-    <tableColumn id="2" xr3:uid="{7B541160-E215-48CE-A708-A9B81341FB36}" name="DIRECCION" dataDxfId="560"/>
-    <tableColumn id="3" xr3:uid="{C87E6F99-2C33-41E1-910A-56118FB6CEA2}" name="NOMBRE CLIENTE" dataDxfId="559" totalsRowDxfId="558"/>
-    <tableColumn id="4" xr3:uid="{AC238300-B15A-40FF-BF70-F1ABBF4B84DB}" name="TORRE/APTO" dataDxfId="557" totalsRowDxfId="556"/>
-    <tableColumn id="5" xr3:uid="{DEBA4A69-A326-4346-9AF7-8F94C71F04B8}" name="SERVICIO REALIZADO" dataDxfId="555" totalsRowDxfId="554"/>
-    <tableColumn id="6" xr3:uid="{0C5C7083-E11A-4126-BB1C-58037F790853}" name="DOMICILIO" dataDxfId="553" totalsRowDxfId="552"/>
-    <tableColumn id="7" xr3:uid="{85C411DB-DD0C-4095-A483-1972E44C659E}" name="VALOR SERVICIO" dataDxfId="551" totalsRowDxfId="550"/>
-    <tableColumn id="8" xr3:uid="{BE982540-62B2-4C53-B539-D567DCB96001}" name="MATERIALES" dataDxfId="549"/>
-    <tableColumn id="9" xr3:uid="{D55AA2D8-3A08-47D0-9212-47CF0F007908}" name="VALOR MATERIALES" dataDxfId="548" totalsRowDxfId="547"/>
-    <tableColumn id="10" xr3:uid="{D05A4303-A355-4454-BCB2-EC086ADE67B7}" name="IVA 19%" dataDxfId="546" totalsRowDxfId="545"/>
-    <tableColumn id="11" xr3:uid="{668C804D-C86E-4B64-9768-E9C785F0DE00}" name="PORTERIA" dataDxfId="544" totalsRowDxfId="543"/>
-    <tableColumn id="12" xr3:uid="{46DB6D4C-9CC6-4252-96CF-72C1E3C46BEA}" name="FORMA DE PAGO " dataDxfId="542"/>
-    <tableColumn id="13" xr3:uid="{FA9B3154-D832-48D2-8D04-6729D9D451FA}" name="TOTAL SERVICIO" dataDxfId="541" totalsRowDxfId="540">
+    <tableColumn id="1" xr3:uid="{88EFFA51-78C5-4D82-BB42-F4AEE89D019D}" name="FECHA" totalsRowLabel="Total" dataDxfId="556" totalsRowDxfId="555"/>
+    <tableColumn id="2" xr3:uid="{7B541160-E215-48CE-A708-A9B81341FB36}" name="DIRECCION" dataDxfId="554"/>
+    <tableColumn id="3" xr3:uid="{C87E6F99-2C33-41E1-910A-56118FB6CEA2}" name="NOMBRE CLIENTE" dataDxfId="553" totalsRowDxfId="552"/>
+    <tableColumn id="4" xr3:uid="{AC238300-B15A-40FF-BF70-F1ABBF4B84DB}" name="TORRE/APTO" dataDxfId="551" totalsRowDxfId="550"/>
+    <tableColumn id="5" xr3:uid="{DEBA4A69-A326-4346-9AF7-8F94C71F04B8}" name="SERVICIO REALIZADO" dataDxfId="549" totalsRowDxfId="548"/>
+    <tableColumn id="6" xr3:uid="{0C5C7083-E11A-4126-BB1C-58037F790853}" name="DOMICILIO" dataDxfId="547" totalsRowDxfId="546"/>
+    <tableColumn id="7" xr3:uid="{85C411DB-DD0C-4095-A483-1972E44C659E}" name="VALOR SERVICIO" dataDxfId="545" totalsRowDxfId="544"/>
+    <tableColumn id="8" xr3:uid="{BE982540-62B2-4C53-B539-D567DCB96001}" name="MATERIALES" dataDxfId="543"/>
+    <tableColumn id="9" xr3:uid="{D55AA2D8-3A08-47D0-9212-47CF0F007908}" name="VALOR MATERIALES" dataDxfId="542" totalsRowDxfId="541"/>
+    <tableColumn id="10" xr3:uid="{D05A4303-A355-4454-BCB2-EC086ADE67B7}" name="IVA 19%" dataDxfId="540" totalsRowDxfId="539"/>
+    <tableColumn id="11" xr3:uid="{668C804D-C86E-4B64-9768-E9C785F0DE00}" name="PORTERIA" dataDxfId="538" totalsRowDxfId="537"/>
+    <tableColumn id="12" xr3:uid="{46DB6D4C-9CC6-4252-96CF-72C1E3C46BEA}" name="FORMA DE PAGO " dataDxfId="536"/>
+    <tableColumn id="13" xr3:uid="{FA9B3154-D832-48D2-8D04-6729D9D451FA}" name="TOTAL SERVICIO" dataDxfId="535" totalsRowDxfId="534">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{82B0E965-2F35-49F4-B770-9A98B3827FC7}" name="X50%/X25%" dataDxfId="539" totalsRowDxfId="538"/>
-    <tableColumn id="15" xr3:uid="{3E19AA37-CF0B-4C1B-B04A-0A62D3D17436}" name="PARA JG" dataDxfId="537" totalsRowDxfId="536">
+    <tableColumn id="14" xr3:uid="{82B0E965-2F35-49F4-B770-9A98B3827FC7}" name="X50%/X25%" dataDxfId="533" totalsRowDxfId="532"/>
+    <tableColumn id="15" xr3:uid="{3E19AA37-CF0B-4C1B-B04A-0A62D3D17436}" name="PARA JG" dataDxfId="531" totalsRowDxfId="530">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{2EB78162-0BC1-4664-A2A8-56110798321E}" name="PARA ABRECAR" dataDxfId="535" totalsRowDxfId="534">
+    <tableColumn id="16" xr3:uid="{2EB78162-0BC1-4664-A2A8-56110798321E}" name="PARA ABRECAR" dataDxfId="529" totalsRowDxfId="528">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{09F90FEF-782C-4AF1-B98E-46E81FF06B83}" name="ESTADO DEL SERVICIO" dataDxfId="533" totalsRowDxfId="532"/>
-    <tableColumn id="18" xr3:uid="{6BF05911-D79C-4CC7-98AF-584BCA918F60}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="531" totalsRowDxfId="530"/>
-    <tableColumn id="19" xr3:uid="{AC55681B-2B2C-491B-9108-650B648D57E8}" name="NOTAS " totalsRowFunction="count" dataDxfId="529"/>
+    <tableColumn id="17" xr3:uid="{09F90FEF-782C-4AF1-B98E-46E81FF06B83}" name="ESTADO DEL SERVICIO" dataDxfId="527" totalsRowDxfId="526"/>
+    <tableColumn id="18" xr3:uid="{6BF05911-D79C-4CC7-98AF-584BCA918F60}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="525" totalsRowDxfId="524"/>
+    <tableColumn id="19" xr3:uid="{AC55681B-2B2C-491B-9108-650B648D57E8}" name="NOTAS " totalsRowFunction="count" dataDxfId="523"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D3DC7B56-6A27-47EA-8A62-6146CB27CD41}" name="Tabla14567891011" displayName="Tabla14567891011" ref="A1:S42" totalsRowCount="1" headerRowDxfId="225" dataDxfId="224">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D3DC7B56-6A27-47EA-8A62-6146CB27CD41}" name="Tabla14567891011" displayName="Tabla14567891011" ref="A1:S42" totalsRowCount="1" headerRowDxfId="123" dataDxfId="122">
   <autoFilter ref="A1:S41" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -5619,38 +5640,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{94F08EE5-D270-4BBA-BFF0-760C6EE7067B}" name="FECHA" totalsRowLabel="Total" dataDxfId="223" totalsRowDxfId="222"/>
-    <tableColumn id="2" xr3:uid="{4C53B68C-163E-46DC-B529-42A48BCB11F4}" name="DIRECCION" dataDxfId="221" totalsRowDxfId="220"/>
-    <tableColumn id="3" xr3:uid="{79BD3134-74F1-4163-BEA0-1250C669D816}" name="NOMBRE CLIENTE" dataDxfId="219" totalsRowDxfId="218"/>
-    <tableColumn id="4" xr3:uid="{9B7351AF-69A8-42A0-88CF-7F1D324558CD}" name="TORRE/APTO" dataDxfId="217" totalsRowDxfId="216"/>
-    <tableColumn id="5" xr3:uid="{3FC795B0-64D5-412F-967D-88FDCE6188CC}" name="SERVICIO REALIZADO" dataDxfId="215" totalsRowDxfId="214"/>
-    <tableColumn id="6" xr3:uid="{F8E4C084-C1E1-410A-9AB8-48E3E1C03449}" name="DOMICILIO" dataDxfId="213" totalsRowDxfId="212" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{3923866B-5E04-4E69-B31A-D524F1DB0AAC}" name="VALOR SERVICIO" dataDxfId="211" totalsRowDxfId="210"/>
-    <tableColumn id="8" xr3:uid="{8D9C03FA-D5F4-4C9D-B0D6-0B3FE724EB6D}" name="MATERIALES" dataDxfId="209"/>
-    <tableColumn id="9" xr3:uid="{416A2E87-138A-49CF-B9F5-D318A063AD9F}" name="VALOR MATERIALES" dataDxfId="208" totalsRowDxfId="207"/>
-    <tableColumn id="10" xr3:uid="{A82F5C41-8889-4BC2-8CD0-E17F28FC8B69}" name="IVA 19%" dataDxfId="206" totalsRowDxfId="205"/>
-    <tableColumn id="11" xr3:uid="{8AE9AA77-4CCE-4933-9E37-2424517466ED}" name="PORTERIA" dataDxfId="204" totalsRowDxfId="203"/>
-    <tableColumn id="12" xr3:uid="{9AEF8C4D-8BF9-4E7D-B1C4-77744EC693C7}" name="FORMA DE PAGO " dataDxfId="202"/>
-    <tableColumn id="13" xr3:uid="{E6A473EB-A02F-4383-8D91-3F21721D15F3}" name="TOTAL SERVICIO" dataDxfId="201" totalsRowDxfId="200">
+    <tableColumn id="1" xr3:uid="{94F08EE5-D270-4BBA-BFF0-760C6EE7067B}" name="FECHA" totalsRowLabel="Total" dataDxfId="121" totalsRowDxfId="120"/>
+    <tableColumn id="2" xr3:uid="{4C53B68C-163E-46DC-B529-42A48BCB11F4}" name="DIRECCION" dataDxfId="119" totalsRowDxfId="118"/>
+    <tableColumn id="3" xr3:uid="{79BD3134-74F1-4163-BEA0-1250C669D816}" name="NOMBRE CLIENTE" dataDxfId="117" totalsRowDxfId="116"/>
+    <tableColumn id="4" xr3:uid="{9B7351AF-69A8-42A0-88CF-7F1D324558CD}" name="TORRE/APTO" dataDxfId="115" totalsRowDxfId="114"/>
+    <tableColumn id="5" xr3:uid="{3FC795B0-64D5-412F-967D-88FDCE6188CC}" name="SERVICIO REALIZADO" dataDxfId="113" totalsRowDxfId="112"/>
+    <tableColumn id="6" xr3:uid="{F8E4C084-C1E1-410A-9AB8-48E3E1C03449}" name="DOMICILIO" dataDxfId="111" totalsRowDxfId="110" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{3923866B-5E04-4E69-B31A-D524F1DB0AAC}" name="VALOR SERVICIO" dataDxfId="109" totalsRowDxfId="108"/>
+    <tableColumn id="8" xr3:uid="{8D9C03FA-D5F4-4C9D-B0D6-0B3FE724EB6D}" name="MATERIALES" dataDxfId="107"/>
+    <tableColumn id="9" xr3:uid="{416A2E87-138A-49CF-B9F5-D318A063AD9F}" name="VALOR MATERIALES" dataDxfId="106" totalsRowDxfId="105"/>
+    <tableColumn id="10" xr3:uid="{A82F5C41-8889-4BC2-8CD0-E17F28FC8B69}" name="IVA 19%" dataDxfId="104" totalsRowDxfId="103"/>
+    <tableColumn id="11" xr3:uid="{8AE9AA77-4CCE-4933-9E37-2424517466ED}" name="PORTERIA" dataDxfId="102" totalsRowDxfId="101"/>
+    <tableColumn id="12" xr3:uid="{9AEF8C4D-8BF9-4E7D-B1C4-77744EC693C7}" name="FORMA DE PAGO " dataDxfId="100"/>
+    <tableColumn id="13" xr3:uid="{E6A473EB-A02F-4383-8D91-3F21721D15F3}" name="TOTAL SERVICIO" dataDxfId="99" totalsRowDxfId="98">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{D278A045-9615-406B-B68A-49A1BAA68123}" name="X50%/X25%" dataDxfId="199" totalsRowDxfId="198"/>
-    <tableColumn id="15" xr3:uid="{27DD6F2B-55CE-4F91-802C-767D2081AE8F}" name="PARA JG" dataDxfId="197" totalsRowDxfId="196">
+    <tableColumn id="14" xr3:uid="{D278A045-9615-406B-B68A-49A1BAA68123}" name="X50%/X25%" dataDxfId="97" totalsRowDxfId="96"/>
+    <tableColumn id="15" xr3:uid="{27DD6F2B-55CE-4F91-802C-767D2081AE8F}" name="PARA JG" dataDxfId="95" totalsRowDxfId="94">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{A3F60C5A-D316-497E-B0E4-A3F9BAD84525}" name="PARA ABRECAR" dataDxfId="195" totalsRowDxfId="194">
+    <tableColumn id="16" xr3:uid="{A3F60C5A-D316-497E-B0E4-A3F9BAD84525}" name="PARA ABRECAR" dataDxfId="93" totalsRowDxfId="92">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{10CB3E58-1A46-4C24-BA4F-AC5B36B8FF91}" name="ESTADO DEL SERVICIO" dataDxfId="193" totalsRowDxfId="192"/>
-    <tableColumn id="18" xr3:uid="{8BFE1AAE-4E74-4C50-BDE1-0DB10D889E57}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="191" totalsRowDxfId="190"/>
-    <tableColumn id="19" xr3:uid="{206EECE6-638F-4588-8E77-382586BB3883}" name="NOTAS " totalsRowFunction="count" dataDxfId="189" totalsRowDxfId="188"/>
+    <tableColumn id="17" xr3:uid="{10CB3E58-1A46-4C24-BA4F-AC5B36B8FF91}" name="ESTADO DEL SERVICIO" dataDxfId="91" totalsRowDxfId="90"/>
+    <tableColumn id="18" xr3:uid="{8BFE1AAE-4E74-4C50-BDE1-0DB10D889E57}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="89" totalsRowDxfId="88"/>
+    <tableColumn id="19" xr3:uid="{206EECE6-638F-4588-8E77-382586BB3883}" name="NOTAS " totalsRowFunction="count" dataDxfId="87" totalsRowDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{DDAE932D-094A-412C-ACB3-D50B4144C427}" name="Tabla1456789101112" displayName="Tabla1456789101112" ref="A1:S41" totalsRowCount="1" headerRowDxfId="187" dataDxfId="186">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{DDAE932D-094A-412C-ACB3-D50B4144C427}" name="Tabla1456789101112" displayName="Tabla1456789101112" ref="A1:S41" totalsRowCount="1" headerRowDxfId="79" dataDxfId="78">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -5673,38 +5694,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{A4610472-FCCC-49A0-A01F-092A0D751A98}" name="FECHA" totalsRowLabel="Total" dataDxfId="185" totalsRowDxfId="184"/>
-    <tableColumn id="2" xr3:uid="{F9E90005-75E9-4DFD-BEDF-137ACD9E05E4}" name="DIRECCION" dataDxfId="183" totalsRowDxfId="182"/>
-    <tableColumn id="3" xr3:uid="{F27B45B3-7483-405C-8490-165648DB5719}" name="NOMBRE CLIENTE" dataDxfId="181" totalsRowDxfId="180"/>
-    <tableColumn id="4" xr3:uid="{0FACF2B2-755C-4F0C-BA8A-14DC07017FD9}" name="TORRE/APTO" dataDxfId="179"/>
-    <tableColumn id="5" xr3:uid="{00E06524-BE36-4FF3-976B-47960F284CE0}" name="SERVICIO REALIZADO" dataDxfId="178" totalsRowDxfId="177"/>
-    <tableColumn id="6" xr3:uid="{5E93EC92-00AD-4B71-80D9-5F0B68DA5499}" name="DOMICILIO" dataDxfId="176" totalsRowDxfId="175" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{FF6104F0-B72E-428D-8D64-20449974A374}" name="VALOR SERVICIO" dataDxfId="174" totalsRowDxfId="173"/>
-    <tableColumn id="8" xr3:uid="{CBA086A4-170D-485A-BDFD-EA146BD0B019}" name="MATERIALES" dataDxfId="172"/>
-    <tableColumn id="9" xr3:uid="{21A2EE02-A6EA-4899-886D-AFD1BA8755C3}" name="VALOR MATERIALES" dataDxfId="171" totalsRowDxfId="170"/>
-    <tableColumn id="10" xr3:uid="{1D00EAAB-65B1-4167-A677-7DFEA1816D65}" name="IVA 19%" dataDxfId="169" totalsRowDxfId="168"/>
-    <tableColumn id="11" xr3:uid="{2009E649-7D60-4DDB-8525-08B12BD6FA59}" name="PORTERIA" dataDxfId="167" totalsRowDxfId="166"/>
-    <tableColumn id="12" xr3:uid="{54BC3D94-5458-4653-8053-00D38144E7B3}" name="FORMA DE PAGO " dataDxfId="165"/>
-    <tableColumn id="13" xr3:uid="{A1498961-0B31-4EC8-87A8-0CA896C0FA28}" name="TOTAL SERVICIO" dataDxfId="164" totalsRowDxfId="163">
+    <tableColumn id="1" xr3:uid="{A4610472-FCCC-49A0-A01F-092A0D751A98}" name="FECHA" totalsRowLabel="Total" dataDxfId="77" totalsRowDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{F9E90005-75E9-4DFD-BEDF-137ACD9E05E4}" name="DIRECCION" dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="3" xr3:uid="{F27B45B3-7483-405C-8490-165648DB5719}" name="NOMBRE CLIENTE" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="4" xr3:uid="{0FACF2B2-755C-4F0C-BA8A-14DC07017FD9}" name="TORRE/APTO" dataDxfId="71"/>
+    <tableColumn id="5" xr3:uid="{00E06524-BE36-4FF3-976B-47960F284CE0}" name="SERVICIO REALIZADO" dataDxfId="70" totalsRowDxfId="69"/>
+    <tableColumn id="6" xr3:uid="{5E93EC92-00AD-4B71-80D9-5F0B68DA5499}" name="DOMICILIO" dataDxfId="68" totalsRowDxfId="67" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{FF6104F0-B72E-428D-8D64-20449974A374}" name="VALOR SERVICIO" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="8" xr3:uid="{CBA086A4-170D-485A-BDFD-EA146BD0B019}" name="MATERIALES" dataDxfId="64"/>
+    <tableColumn id="9" xr3:uid="{21A2EE02-A6EA-4899-886D-AFD1BA8755C3}" name="VALOR MATERIALES" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="10" xr3:uid="{1D00EAAB-65B1-4167-A677-7DFEA1816D65}" name="IVA 19%" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="11" xr3:uid="{2009E649-7D60-4DDB-8525-08B12BD6FA59}" name="PORTERIA" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="12" xr3:uid="{54BC3D94-5458-4653-8053-00D38144E7B3}" name="FORMA DE PAGO " dataDxfId="57"/>
+    <tableColumn id="13" xr3:uid="{A1498961-0B31-4EC8-87A8-0CA896C0FA28}" name="TOTAL SERVICIO" dataDxfId="56" totalsRowDxfId="55">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{DCA18CC6-6586-4991-B645-0EFDB3C671BA}" name="X50%/X25%" dataDxfId="162" totalsRowDxfId="161"/>
-    <tableColumn id="15" xr3:uid="{EBD3F72E-644C-4987-97C9-741E83FF57A3}" name="PARA JG" dataDxfId="160" totalsRowDxfId="159">
+    <tableColumn id="14" xr3:uid="{DCA18CC6-6586-4991-B645-0EFDB3C671BA}" name="X50%/X25%" dataDxfId="54" totalsRowDxfId="53"/>
+    <tableColumn id="15" xr3:uid="{EBD3F72E-644C-4987-97C9-741E83FF57A3}" name="PARA JG" dataDxfId="52" totalsRowDxfId="51">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{582650E7-2FDF-4443-B176-6BD13705FC6A}" name="PARA ABRECAR" dataDxfId="158" totalsRowDxfId="157">
+    <tableColumn id="16" xr3:uid="{582650E7-2FDF-4443-B176-6BD13705FC6A}" name="PARA ABRECAR" dataDxfId="50" totalsRowDxfId="49">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{C9C0844F-A579-409B-A3CA-4CABDCA9A7E7}" name="ESTADO DEL SERVICIO" dataDxfId="156" totalsRowDxfId="155"/>
-    <tableColumn id="18" xr3:uid="{9BE8DE12-7A02-496D-8A4C-CF6A0FC21298}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="154" totalsRowDxfId="153"/>
-    <tableColumn id="19" xr3:uid="{D05F4CC4-F427-42DD-B60E-F5C5874B0A10}" name="NOTAS " totalsRowFunction="count" dataDxfId="152" totalsRowDxfId="151"/>
+    <tableColumn id="17" xr3:uid="{C9C0844F-A579-409B-A3CA-4CABDCA9A7E7}" name="ESTADO DEL SERVICIO" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="18" xr3:uid="{9BE8DE12-7A02-496D-8A4C-CF6A0FC21298}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="19" xr3:uid="{D05F4CC4-F427-42DD-B60E-F5C5874B0A10}" name="NOTAS " totalsRowFunction="count" dataDxfId="44" totalsRowDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{4DF269EC-EC4E-479C-AE4F-1A1087AFCEE8}" name="Tabla145678910111213" displayName="Tabla145678910111213" ref="A1:S41" totalsRowCount="1" headerRowDxfId="150" dataDxfId="149">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{4DF269EC-EC4E-479C-AE4F-1A1087AFCEE8}" name="Tabla145678910111213" displayName="Tabla145678910111213" ref="A1:S41" totalsRowCount="1" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -5727,38 +5748,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{5055830B-9862-472C-85F0-117E805E707D}" name="FECHA" totalsRowLabel="Total" dataDxfId="148" totalsRowDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{689C0FB3-87A6-4631-B1F6-2F9FCAA7E7B1}" name="DIRECCION" dataDxfId="147" totalsRowDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{C1D134A7-FB44-4236-BBB6-7369A781153D}" name="NOMBRE CLIENTE" dataDxfId="146" totalsRowDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{BD93EBE9-5715-4A8F-8BCE-7ED7B4E1EE00}" name="TORRE/APTO" dataDxfId="145"/>
-    <tableColumn id="5" xr3:uid="{D8732EE5-4B90-470C-AF7D-A9E30BB207AC}" name="SERVICIO REALIZADO" dataDxfId="144" totalsRowDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{AAF6961D-5DCD-413C-8B1C-ACEFB0A3CFD9}" name="DOMICILIO" dataDxfId="143" totalsRowDxfId="11" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{65ABEA60-8C9B-41B7-A56F-8019CBE25FF3}" name="VALOR SERVICIO" dataDxfId="142" totalsRowDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{37401935-4C50-4C18-9EE8-ACDC29848F03}" name="MATERIALES" dataDxfId="141"/>
-    <tableColumn id="9" xr3:uid="{A93E3FC1-DC4F-4F49-A038-306F3DB5A2D6}" name="VALOR MATERIALES" dataDxfId="140" totalsRowDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{D4E56074-FD4E-417D-B429-880CC1DD6054}" name="IVA 19%" dataDxfId="139" totalsRowDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{A07BC7C7-BC63-43A4-A1DF-7229BD46E6AD}" name="PORTERIA" dataDxfId="138" totalsRowDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{2AFC385D-3407-49B7-BF00-60E625E847AA}" name="FORMA DE PAGO " dataDxfId="137"/>
-    <tableColumn id="13" xr3:uid="{E2603AC2-0F91-4E56-9786-C317F0769BE6}" name="TOTAL SERVICIO" dataDxfId="136" totalsRowDxfId="6">
+    <tableColumn id="1" xr3:uid="{5055830B-9862-472C-85F0-117E805E707D}" name="FECHA" totalsRowLabel="Total" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{689C0FB3-87A6-4631-B1F6-2F9FCAA7E7B1}" name="DIRECCION" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{C1D134A7-FB44-4236-BBB6-7369A781153D}" name="NOMBRE CLIENTE" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{BD93EBE9-5715-4A8F-8BCE-7ED7B4E1EE00}" name="TORRE/APTO" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{D8732EE5-4B90-470C-AF7D-A9E30BB207AC}" name="SERVICIO REALIZADO" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{AAF6961D-5DCD-413C-8B1C-ACEFB0A3CFD9}" name="DOMICILIO" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{65ABEA60-8C9B-41B7-A56F-8019CBE25FF3}" name="VALOR SERVICIO" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{37401935-4C50-4C18-9EE8-ACDC29848F03}" name="MATERIALES" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{A93E3FC1-DC4F-4F49-A038-306F3DB5A2D6}" name="VALOR MATERIALES" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{D4E56074-FD4E-417D-B429-880CC1DD6054}" name="IVA 19%" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{A07BC7C7-BC63-43A4-A1DF-7229BD46E6AD}" name="PORTERIA" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{2AFC385D-3407-49B7-BF00-60E625E847AA}" name="FORMA DE PAGO " dataDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{E2603AC2-0F91-4E56-9786-C317F0769BE6}" name="TOTAL SERVICIO" dataDxfId="13" totalsRowDxfId="12">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{FD5B7BBF-B716-48D2-B942-472BC782EC98}" name="X50%/X25%" dataDxfId="135" totalsRowDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{7D676C93-BA72-46B0-9F8A-8787870D86D0}" name="PARA JG" dataDxfId="134" totalsRowDxfId="4">
+    <tableColumn id="14" xr3:uid="{FD5B7BBF-B716-48D2-B942-472BC782EC98}" name="X50%/X25%" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{7D676C93-BA72-46B0-9F8A-8787870D86D0}" name="PARA JG" dataDxfId="9" totalsRowDxfId="8">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{BE3B5891-889F-41B1-B172-6BB026E6D50C}" name="PARA ABRECAR" dataDxfId="133" totalsRowDxfId="3">
+    <tableColumn id="16" xr3:uid="{BE3B5891-889F-41B1-B172-6BB026E6D50C}" name="PARA ABRECAR" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{A5F392B8-0A11-4121-9E91-E628125AA82C}" name="ESTADO DEL SERVICIO" dataDxfId="132" totalsRowDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{553C6916-0493-4196-B3C4-4AC2BD6C71D7}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="131" totalsRowDxfId="1"/>
-    <tableColumn id="19" xr3:uid="{131F3898-DF9C-4BB0-BA07-9F2E882DFC9F}" name="NOTAS " totalsRowFunction="count" dataDxfId="130" totalsRowDxfId="0"/>
+    <tableColumn id="17" xr3:uid="{A5F392B8-0A11-4121-9E91-E628125AA82C}" name="ESTADO DEL SERVICIO" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="18" xr3:uid="{553C6916-0493-4196-B3C4-4AC2BD6C71D7}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="19" xr3:uid="{131F3898-DF9C-4BB0-BA07-9F2E882DFC9F}" name="NOTAS " totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{94438BA3-29D2-4F86-A312-A9854BED804A}" name="Tabla13" displayName="Tabla13" ref="A1:S41" totalsRowCount="1" headerRowDxfId="528" dataDxfId="527">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{94438BA3-29D2-4F86-A312-A9854BED804A}" name="Tabla13" displayName="Tabla13" ref="A1:S41" totalsRowCount="1" headerRowDxfId="510" dataDxfId="509">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -5781,38 +5802,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{0D5AF355-292A-437A-ABFF-14D4EE864C29}" name="FECHA" totalsRowLabel="Total" dataDxfId="526" totalsRowDxfId="525"/>
-    <tableColumn id="2" xr3:uid="{5EA7179A-1A2E-4DA8-9CA0-A8CD4A717B15}" name="DIRECCION" dataDxfId="524" totalsRowDxfId="523"/>
-    <tableColumn id="3" xr3:uid="{E34E0C46-217A-438E-9B35-A0FF51FAC3F7}" name="NOMBRE CLIENTE" dataDxfId="522" totalsRowDxfId="521"/>
-    <tableColumn id="4" xr3:uid="{560F5D09-0B9E-4A04-A18C-BF23E3A80E5D}" name="TORRE/APTO" dataDxfId="520" totalsRowDxfId="519"/>
-    <tableColumn id="5" xr3:uid="{7134EEE2-6484-4F0E-9435-D17BB7E557CA}" name="SERVICIO REALIZADO" dataDxfId="518" totalsRowDxfId="517"/>
-    <tableColumn id="6" xr3:uid="{32BD03FE-E4E7-4E0E-B2A4-B633D6C0425A}" name="DOMICILIO" dataDxfId="516" totalsRowDxfId="515" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{44206A87-92DB-40AC-B414-3C66B7F4622D}" name="VALOR SERVICIO" dataDxfId="514" totalsRowDxfId="513"/>
-    <tableColumn id="8" xr3:uid="{14ABC623-5BB2-465D-A355-1E904638BB4F}" name="MATERIALES" dataDxfId="512" totalsRowDxfId="511"/>
-    <tableColumn id="9" xr3:uid="{BA6E9A66-ED27-4537-AFDE-7B52D7B2CFAD}" name="VALOR MATERIALES" dataDxfId="510" totalsRowDxfId="509"/>
-    <tableColumn id="10" xr3:uid="{F97C474D-0D87-427E-B496-3DD1D2D311BC}" name="IVA 19%" dataDxfId="508" totalsRowDxfId="507"/>
-    <tableColumn id="11" xr3:uid="{0569DB8A-2AA4-4706-85EA-49056986314D}" name="PORTERIA" dataDxfId="506" totalsRowDxfId="505"/>
-    <tableColumn id="12" xr3:uid="{CEA9ED83-3012-41AC-8AB2-F507C2E3B7FC}" name="FORMA DE PAGO " dataDxfId="504"/>
-    <tableColumn id="13" xr3:uid="{F52A621D-2C23-47B6-802B-1BEDE09C99C4}" name="TOTAL SERVICIO" dataDxfId="503" totalsRowDxfId="502">
+    <tableColumn id="1" xr3:uid="{0D5AF355-292A-437A-ABFF-14D4EE864C29}" name="FECHA" totalsRowLabel="Total" dataDxfId="508" totalsRowDxfId="507"/>
+    <tableColumn id="2" xr3:uid="{5EA7179A-1A2E-4DA8-9CA0-A8CD4A717B15}" name="DIRECCION" dataDxfId="506" totalsRowDxfId="505"/>
+    <tableColumn id="3" xr3:uid="{E34E0C46-217A-438E-9B35-A0FF51FAC3F7}" name="NOMBRE CLIENTE" dataDxfId="504" totalsRowDxfId="503"/>
+    <tableColumn id="4" xr3:uid="{560F5D09-0B9E-4A04-A18C-BF23E3A80E5D}" name="TORRE/APTO" dataDxfId="502" totalsRowDxfId="501"/>
+    <tableColumn id="5" xr3:uid="{7134EEE2-6484-4F0E-9435-D17BB7E557CA}" name="SERVICIO REALIZADO" dataDxfId="500" totalsRowDxfId="499"/>
+    <tableColumn id="6" xr3:uid="{32BD03FE-E4E7-4E0E-B2A4-B633D6C0425A}" name="DOMICILIO" dataDxfId="498" totalsRowDxfId="497" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{44206A87-92DB-40AC-B414-3C66B7F4622D}" name="VALOR SERVICIO" dataDxfId="496" totalsRowDxfId="495"/>
+    <tableColumn id="8" xr3:uid="{14ABC623-5BB2-465D-A355-1E904638BB4F}" name="MATERIALES" dataDxfId="494" totalsRowDxfId="493"/>
+    <tableColumn id="9" xr3:uid="{BA6E9A66-ED27-4537-AFDE-7B52D7B2CFAD}" name="VALOR MATERIALES" dataDxfId="492" totalsRowDxfId="491"/>
+    <tableColumn id="10" xr3:uid="{F97C474D-0D87-427E-B496-3DD1D2D311BC}" name="IVA 19%" dataDxfId="490" totalsRowDxfId="489"/>
+    <tableColumn id="11" xr3:uid="{0569DB8A-2AA4-4706-85EA-49056986314D}" name="PORTERIA" dataDxfId="488" totalsRowDxfId="487"/>
+    <tableColumn id="12" xr3:uid="{CEA9ED83-3012-41AC-8AB2-F507C2E3B7FC}" name="FORMA DE PAGO " dataDxfId="486"/>
+    <tableColumn id="13" xr3:uid="{F52A621D-2C23-47B6-802B-1BEDE09C99C4}" name="TOTAL SERVICIO" dataDxfId="485" totalsRowDxfId="484">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{5BAFF023-C8EE-4A74-B2B4-3CA0D6B08EE1}" name="X50%/X25%" dataDxfId="501" totalsRowDxfId="500"/>
-    <tableColumn id="15" xr3:uid="{844FBD5D-CD5B-4D22-817A-294B4EE3E163}" name="PARA JG" dataDxfId="499" totalsRowDxfId="498">
+    <tableColumn id="14" xr3:uid="{5BAFF023-C8EE-4A74-B2B4-3CA0D6B08EE1}" name="X50%/X25%" dataDxfId="483" totalsRowDxfId="482"/>
+    <tableColumn id="15" xr3:uid="{844FBD5D-CD5B-4D22-817A-294B4EE3E163}" name="PARA JG" dataDxfId="481" totalsRowDxfId="480">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{D4E47D5D-5691-4AD4-BAC3-4761D49930C8}" name="PARA ABRECAR" dataDxfId="497" totalsRowDxfId="496">
+    <tableColumn id="16" xr3:uid="{D4E47D5D-5691-4AD4-BAC3-4761D49930C8}" name="PARA ABRECAR" dataDxfId="479" totalsRowDxfId="478">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{73372BCF-EFFF-4EF5-814D-DFE11DDAB274}" name="ESTADO DEL SERVICIO" dataDxfId="495" totalsRowDxfId="494"/>
-    <tableColumn id="18" xr3:uid="{DD91CCFD-9DFE-47D4-940F-2D02FD2B7CE2}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="493" totalsRowDxfId="492"/>
-    <tableColumn id="19" xr3:uid="{BFD2664E-4D1B-4B0B-BC71-807C94F0E6FC}" name="NOTAS " totalsRowFunction="count" dataDxfId="491" totalsRowDxfId="490"/>
+    <tableColumn id="17" xr3:uid="{73372BCF-EFFF-4EF5-814D-DFE11DDAB274}" name="ESTADO DEL SERVICIO" dataDxfId="477" totalsRowDxfId="476"/>
+    <tableColumn id="18" xr3:uid="{DD91CCFD-9DFE-47D4-940F-2D02FD2B7CE2}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="475" totalsRowDxfId="474"/>
+    <tableColumn id="19" xr3:uid="{BFD2664E-4D1B-4B0B-BC71-807C94F0E6FC}" name="NOTAS " totalsRowFunction="count" dataDxfId="473" totalsRowDxfId="472"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EA784F1D-3DAA-4FF6-85B6-3A868655D2FD}" name="Tabla14" displayName="Tabla14" ref="A1:S41" totalsRowCount="1" headerRowDxfId="489" dataDxfId="488">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EA784F1D-3DAA-4FF6-85B6-3A868655D2FD}" name="Tabla14" displayName="Tabla14" ref="A1:S41" totalsRowCount="1" headerRowDxfId="465" dataDxfId="464">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -5835,38 +5856,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{D523D64C-D57B-4626-90E7-FD0731011868}" name="FECHA" totalsRowLabel="Total" dataDxfId="487" totalsRowDxfId="486"/>
-    <tableColumn id="2" xr3:uid="{147E84AE-230D-4E00-80B5-3E175839785C}" name="DIRECCION" dataDxfId="485"/>
-    <tableColumn id="3" xr3:uid="{3352E7E0-D480-4180-AA74-29C468449217}" name="NOMBRE CLIENTE" dataDxfId="484" totalsRowDxfId="483"/>
-    <tableColumn id="4" xr3:uid="{66F0647C-9F9F-44D6-B3DE-58982017DBD4}" name="TORRE/APTO" dataDxfId="482"/>
-    <tableColumn id="5" xr3:uid="{1FFB20B8-9F63-4AA2-B6BF-230DE6C71698}" name="SERVICIO REALIZADO" dataDxfId="481" totalsRowDxfId="480"/>
-    <tableColumn id="6" xr3:uid="{32435D80-CF43-4695-836B-3E9A2B56C146}" name="DOMICILIO" dataDxfId="479" totalsRowDxfId="478" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{85FD1E33-5A46-4C12-B448-BC9121DA9739}" name="VALOR SERVICIO" dataDxfId="477" totalsRowDxfId="476"/>
-    <tableColumn id="8" xr3:uid="{5D7C958E-4915-4369-8EB9-1E81282E2545}" name="MATERIALES" dataDxfId="475" totalsRowDxfId="474"/>
-    <tableColumn id="9" xr3:uid="{88473CBA-440F-41A0-BA4B-A67CE687D394}" name="VALOR MATERIALES" dataDxfId="473" totalsRowDxfId="472" dataCellStyle="Moneda"/>
-    <tableColumn id="10" xr3:uid="{953FDF9C-3ED4-41C5-BD3F-C7ADA7C18139}" name="IVA 19%" dataDxfId="471"/>
-    <tableColumn id="11" xr3:uid="{ECD176BE-4CE1-47E9-B4E5-6A846728A5AE}" name="PORTERIA" dataDxfId="470" totalsRowDxfId="469"/>
-    <tableColumn id="12" xr3:uid="{65743FE3-B63C-43CD-A2D4-E44B9380207A}" name="FORMA DE PAGO " dataDxfId="468"/>
-    <tableColumn id="13" xr3:uid="{2894C387-3068-4F17-A263-09DAF947A9A9}" name="TOTAL SERVICIO" dataDxfId="467" totalsRowDxfId="466">
+    <tableColumn id="1" xr3:uid="{D523D64C-D57B-4626-90E7-FD0731011868}" name="FECHA" totalsRowLabel="Total" dataDxfId="463" totalsRowDxfId="462"/>
+    <tableColumn id="2" xr3:uid="{147E84AE-230D-4E00-80B5-3E175839785C}" name="DIRECCION" dataDxfId="461"/>
+    <tableColumn id="3" xr3:uid="{3352E7E0-D480-4180-AA74-29C468449217}" name="NOMBRE CLIENTE" dataDxfId="460" totalsRowDxfId="459"/>
+    <tableColumn id="4" xr3:uid="{66F0647C-9F9F-44D6-B3DE-58982017DBD4}" name="TORRE/APTO" dataDxfId="458"/>
+    <tableColumn id="5" xr3:uid="{1FFB20B8-9F63-4AA2-B6BF-230DE6C71698}" name="SERVICIO REALIZADO" dataDxfId="457" totalsRowDxfId="456"/>
+    <tableColumn id="6" xr3:uid="{32435D80-CF43-4695-836B-3E9A2B56C146}" name="DOMICILIO" dataDxfId="455" totalsRowDxfId="454" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{85FD1E33-5A46-4C12-B448-BC9121DA9739}" name="VALOR SERVICIO" dataDxfId="453" totalsRowDxfId="452"/>
+    <tableColumn id="8" xr3:uid="{5D7C958E-4915-4369-8EB9-1E81282E2545}" name="MATERIALES" dataDxfId="451" totalsRowDxfId="450"/>
+    <tableColumn id="9" xr3:uid="{88473CBA-440F-41A0-BA4B-A67CE687D394}" name="VALOR MATERIALES" dataDxfId="449" totalsRowDxfId="448" dataCellStyle="Moneda"/>
+    <tableColumn id="10" xr3:uid="{953FDF9C-3ED4-41C5-BD3F-C7ADA7C18139}" name="IVA 19%" dataDxfId="447"/>
+    <tableColumn id="11" xr3:uid="{ECD176BE-4CE1-47E9-B4E5-6A846728A5AE}" name="PORTERIA" dataDxfId="446" totalsRowDxfId="445"/>
+    <tableColumn id="12" xr3:uid="{65743FE3-B63C-43CD-A2D4-E44B9380207A}" name="FORMA DE PAGO " dataDxfId="444"/>
+    <tableColumn id="13" xr3:uid="{2894C387-3068-4F17-A263-09DAF947A9A9}" name="TOTAL SERVICIO" dataDxfId="443" totalsRowDxfId="442">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{307F89ED-6745-41FB-97EA-3BECAD196C8B}" name="X50%/X25%" dataDxfId="465" totalsRowDxfId="464"/>
-    <tableColumn id="15" xr3:uid="{97E95D22-B758-46B9-9059-F746F1106DD4}" name="PARA JG" dataDxfId="463" totalsRowDxfId="462">
+    <tableColumn id="14" xr3:uid="{307F89ED-6745-41FB-97EA-3BECAD196C8B}" name="X50%/X25%" dataDxfId="441" totalsRowDxfId="440"/>
+    <tableColumn id="15" xr3:uid="{97E95D22-B758-46B9-9059-F746F1106DD4}" name="PARA JG" dataDxfId="439" totalsRowDxfId="438">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{2CB12610-BC89-41FE-96C4-CC02B13DF3BD}" name="PARA ABRECAR" dataDxfId="461" totalsRowDxfId="460">
+    <tableColumn id="16" xr3:uid="{2CB12610-BC89-41FE-96C4-CC02B13DF3BD}" name="PARA ABRECAR" dataDxfId="437" totalsRowDxfId="436">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{6E6D9331-E262-4A42-9E0B-5A30BF9A4281}" name="ESTADO DEL SERVICIO" dataDxfId="459" totalsRowDxfId="458"/>
-    <tableColumn id="18" xr3:uid="{5D266FF0-995F-4DA9-8CE3-15BE0BBF8702}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="457" totalsRowDxfId="456"/>
-    <tableColumn id="19" xr3:uid="{94DE83EA-515A-4C4F-83FD-17132BF224F6}" name="NOTAS " totalsRowFunction="count" dataDxfId="455" totalsRowDxfId="454"/>
+    <tableColumn id="17" xr3:uid="{6E6D9331-E262-4A42-9E0B-5A30BF9A4281}" name="ESTADO DEL SERVICIO" dataDxfId="435" totalsRowDxfId="434"/>
+    <tableColumn id="18" xr3:uid="{5D266FF0-995F-4DA9-8CE3-15BE0BBF8702}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="433" totalsRowDxfId="432"/>
+    <tableColumn id="19" xr3:uid="{94DE83EA-515A-4C4F-83FD-17132BF224F6}" name="NOTAS " totalsRowFunction="count" dataDxfId="431" totalsRowDxfId="430"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D539E001-6CC0-4E15-B866-F9D639064C10}" name="Tabla145" displayName="Tabla145" ref="A1:S41" totalsRowCount="1" headerRowDxfId="453" dataDxfId="452">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D539E001-6CC0-4E15-B866-F9D639064C10}" name="Tabla145" displayName="Tabla145" ref="A1:S41" totalsRowCount="1" headerRowDxfId="417" dataDxfId="416">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -5889,38 +5910,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{ED00B034-A028-49EB-A74F-7B380E5CAEF6}" name="FECHA" totalsRowLabel="Total" dataDxfId="451" totalsRowDxfId="450"/>
-    <tableColumn id="2" xr3:uid="{56B21F16-EB7C-407B-9240-BA9C7E05EFB0}" name="DIRECCION" dataDxfId="449" totalsRowDxfId="448"/>
-    <tableColumn id="3" xr3:uid="{91C78E48-D4D3-4FFC-91C7-B42DFC7FD50C}" name="NOMBRE CLIENTE" dataDxfId="447" totalsRowDxfId="446"/>
-    <tableColumn id="4" xr3:uid="{31F67041-1F31-4308-8EC1-3DFBC27F3D0D}" name="TORRE/APTO" dataDxfId="445" totalsRowDxfId="444"/>
-    <tableColumn id="5" xr3:uid="{F5228A9C-D31D-4E94-A276-2378C2DAF53A}" name="SERVICIO REALIZADO" dataDxfId="443" totalsRowDxfId="442"/>
-    <tableColumn id="6" xr3:uid="{0307C712-1D29-4C68-80F4-DAC6765072D3}" name="DOMICILIO" dataDxfId="441" totalsRowDxfId="440" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{D8D9FF51-D262-4709-BD9C-E831827F7207}" name="VALOR SERVICIO" dataDxfId="439" totalsRowDxfId="438"/>
-    <tableColumn id="8" xr3:uid="{59E14D4C-867E-42B7-B9D3-3F182E31BFD0}" name="MATERIALES" dataDxfId="437"/>
-    <tableColumn id="9" xr3:uid="{F54B4CBC-743C-4A28-8FC4-AE9D671F04D0}" name="VALOR MATERIALES" dataDxfId="436" totalsRowDxfId="435"/>
-    <tableColumn id="10" xr3:uid="{A2DC869C-EAE2-496B-8CF2-A8139DBA2C83}" name="IVA 19%" dataDxfId="434" totalsRowDxfId="433"/>
-    <tableColumn id="11" xr3:uid="{9618C0AE-F9E6-4E83-A80E-51A561D98E94}" name="PORTERIA" dataDxfId="432" totalsRowDxfId="431"/>
-    <tableColumn id="12" xr3:uid="{EFF6D41C-F2CB-48D3-A8D3-D264EA27CBBA}" name="FORMA DE PAGO" dataDxfId="430"/>
-    <tableColumn id="13" xr3:uid="{A89B756E-94A8-47E8-84AD-90F416989867}" name="TOTAL SERVICIO" dataDxfId="429" totalsRowDxfId="428">
+    <tableColumn id="1" xr3:uid="{ED00B034-A028-49EB-A74F-7B380E5CAEF6}" name="FECHA" totalsRowLabel="Total" dataDxfId="415" totalsRowDxfId="414"/>
+    <tableColumn id="2" xr3:uid="{56B21F16-EB7C-407B-9240-BA9C7E05EFB0}" name="DIRECCION" dataDxfId="413" totalsRowDxfId="412"/>
+    <tableColumn id="3" xr3:uid="{91C78E48-D4D3-4FFC-91C7-B42DFC7FD50C}" name="NOMBRE CLIENTE" dataDxfId="411" totalsRowDxfId="410"/>
+    <tableColumn id="4" xr3:uid="{31F67041-1F31-4308-8EC1-3DFBC27F3D0D}" name="TORRE/APTO" dataDxfId="409" totalsRowDxfId="408"/>
+    <tableColumn id="5" xr3:uid="{F5228A9C-D31D-4E94-A276-2378C2DAF53A}" name="SERVICIO REALIZADO" dataDxfId="407" totalsRowDxfId="406"/>
+    <tableColumn id="6" xr3:uid="{0307C712-1D29-4C68-80F4-DAC6765072D3}" name="DOMICILIO" dataDxfId="405" totalsRowDxfId="404" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{D8D9FF51-D262-4709-BD9C-E831827F7207}" name="VALOR SERVICIO" dataDxfId="403" totalsRowDxfId="402"/>
+    <tableColumn id="8" xr3:uid="{59E14D4C-867E-42B7-B9D3-3F182E31BFD0}" name="MATERIALES" dataDxfId="401"/>
+    <tableColumn id="9" xr3:uid="{F54B4CBC-743C-4A28-8FC4-AE9D671F04D0}" name="VALOR MATERIALES" dataDxfId="400" totalsRowDxfId="399"/>
+    <tableColumn id="10" xr3:uid="{A2DC869C-EAE2-496B-8CF2-A8139DBA2C83}" name="IVA 19%" dataDxfId="398" totalsRowDxfId="397"/>
+    <tableColumn id="11" xr3:uid="{9618C0AE-F9E6-4E83-A80E-51A561D98E94}" name="PORTERIA" dataDxfId="396" totalsRowDxfId="395"/>
+    <tableColumn id="12" xr3:uid="{EFF6D41C-F2CB-48D3-A8D3-D264EA27CBBA}" name="FORMA DE PAGO" dataDxfId="394"/>
+    <tableColumn id="13" xr3:uid="{A89B756E-94A8-47E8-84AD-90F416989867}" name="TOTAL SERVICIO" dataDxfId="393" totalsRowDxfId="392">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{AE9135BF-0D6C-4959-A69E-3E5C5D042E28}" name="X50%/X25%" dataDxfId="427" totalsRowDxfId="426"/>
-    <tableColumn id="15" xr3:uid="{491B938F-932C-468D-86FC-2BBA0DA2DBE9}" name="PARA JG" dataDxfId="425" totalsRowDxfId="424">
+    <tableColumn id="14" xr3:uid="{AE9135BF-0D6C-4959-A69E-3E5C5D042E28}" name="X50%/X25%" dataDxfId="391" totalsRowDxfId="390"/>
+    <tableColumn id="15" xr3:uid="{491B938F-932C-468D-86FC-2BBA0DA2DBE9}" name="PARA JG" dataDxfId="389" totalsRowDxfId="388">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{D9977CB5-BC79-4024-846C-31F6F3A4CCFF}" name="PARA ABRECAR" dataDxfId="423" totalsRowDxfId="422">
+    <tableColumn id="16" xr3:uid="{D9977CB5-BC79-4024-846C-31F6F3A4CCFF}" name="PARA ABRECAR" dataDxfId="387" totalsRowDxfId="386">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{9B83594D-3936-4AF7-AFF5-DBC863A11601}" name="ESTADO DEL SERVICIO" dataDxfId="421" totalsRowDxfId="420"/>
-    <tableColumn id="18" xr3:uid="{9DBF688E-505C-4510-AD7C-F9790F220EDA}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="419" totalsRowDxfId="418"/>
-    <tableColumn id="19" xr3:uid="{309DC330-D156-42EE-8C7B-5CCA53126BD9}" name="NOTAS " totalsRowFunction="count" dataDxfId="417" totalsRowDxfId="416"/>
+    <tableColumn id="17" xr3:uid="{9B83594D-3936-4AF7-AFF5-DBC863A11601}" name="ESTADO DEL SERVICIO" dataDxfId="385" totalsRowDxfId="384"/>
+    <tableColumn id="18" xr3:uid="{9DBF688E-505C-4510-AD7C-F9790F220EDA}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="383" totalsRowDxfId="382"/>
+    <tableColumn id="19" xr3:uid="{309DC330-D156-42EE-8C7B-5CCA53126BD9}" name="NOTAS " totalsRowFunction="count" dataDxfId="381" totalsRowDxfId="380"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{79881273-217F-47F1-8A2C-EBBCB223955A}" name="Tabla1456" displayName="Tabla1456" ref="A1:S41" totalsRowCount="1" headerRowDxfId="415" dataDxfId="414">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{79881273-217F-47F1-8A2C-EBBCB223955A}" name="Tabla1456" displayName="Tabla1456" ref="A1:S41" totalsRowCount="1" headerRowDxfId="343" dataDxfId="342">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -5943,38 +5964,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{0C3D997B-8408-42BF-B9C7-9515D4AE156B}" name="FECHA" totalsRowLabel="Total" dataDxfId="413" totalsRowDxfId="412"/>
-    <tableColumn id="2" xr3:uid="{6C918646-A8EB-433F-9FFD-93B416CB88FB}" name="DIRECCION" dataDxfId="411" totalsRowDxfId="410"/>
-    <tableColumn id="3" xr3:uid="{9F532EF3-F7D3-405B-AC54-2E37EEBA12E9}" name="NOMBRE CLIENTE" dataDxfId="409" totalsRowDxfId="408"/>
-    <tableColumn id="4" xr3:uid="{90648A10-62D5-431B-B3E5-B3DC6B0EB11F}" name="TORRE/APTO" dataDxfId="407"/>
-    <tableColumn id="5" xr3:uid="{AE19AAEF-9918-4095-B65A-D9AA41E7391D}" name="SERVICIO REALIZADO" dataDxfId="406" totalsRowDxfId="405"/>
-    <tableColumn id="6" xr3:uid="{DFBC4C92-256F-400E-9134-202E9652C8DF}" name="DOMICILIO" dataDxfId="404" totalsRowDxfId="403" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{6909FC11-08AC-4E7B-9C7A-87CC51E4258E}" name="VALOR SERVICIO" dataDxfId="402" totalsRowDxfId="401"/>
-    <tableColumn id="8" xr3:uid="{E376ADB2-7061-4F12-8B60-24E29AA1CA7E}" name="MATERIALES" dataDxfId="400"/>
-    <tableColumn id="9" xr3:uid="{02DE4204-9C5C-4CE3-A2C8-3344F0FFA0DF}" name="VALOR MATERIALES" dataDxfId="399" totalsRowDxfId="398"/>
-    <tableColumn id="10" xr3:uid="{122AE0D8-1F8F-45DB-AD40-9D3EB12570F7}" name="IVA 19%" dataDxfId="397" totalsRowDxfId="396"/>
-    <tableColumn id="11" xr3:uid="{7F9337DF-A066-47B1-BF46-BA371040214D}" name="PORTERIA" dataDxfId="395" totalsRowDxfId="394"/>
-    <tableColumn id="12" xr3:uid="{3CDD930A-C085-4794-95CA-22C887949175}" name="FORMA DE PAGO" dataDxfId="393"/>
-    <tableColumn id="13" xr3:uid="{F48495AF-F6C9-49C3-B2EF-37493691FD1F}" name="TOTAL SERVICIO" dataDxfId="392" totalsRowDxfId="391">
+    <tableColumn id="1" xr3:uid="{0C3D997B-8408-42BF-B9C7-9515D4AE156B}" name="FECHA" totalsRowLabel="Total" dataDxfId="341" totalsRowDxfId="340"/>
+    <tableColumn id="2" xr3:uid="{6C918646-A8EB-433F-9FFD-93B416CB88FB}" name="DIRECCION" dataDxfId="339" totalsRowDxfId="338"/>
+    <tableColumn id="3" xr3:uid="{9F532EF3-F7D3-405B-AC54-2E37EEBA12E9}" name="NOMBRE CLIENTE" dataDxfId="337" totalsRowDxfId="336"/>
+    <tableColumn id="4" xr3:uid="{90648A10-62D5-431B-B3E5-B3DC6B0EB11F}" name="TORRE/APTO" dataDxfId="335"/>
+    <tableColumn id="5" xr3:uid="{AE19AAEF-9918-4095-B65A-D9AA41E7391D}" name="SERVICIO REALIZADO" dataDxfId="334" totalsRowDxfId="333"/>
+    <tableColumn id="6" xr3:uid="{DFBC4C92-256F-400E-9134-202E9652C8DF}" name="DOMICILIO" dataDxfId="332" totalsRowDxfId="331" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{6909FC11-08AC-4E7B-9C7A-87CC51E4258E}" name="VALOR SERVICIO" dataDxfId="330" totalsRowDxfId="329"/>
+    <tableColumn id="8" xr3:uid="{E376ADB2-7061-4F12-8B60-24E29AA1CA7E}" name="MATERIALES" dataDxfId="328"/>
+    <tableColumn id="9" xr3:uid="{02DE4204-9C5C-4CE3-A2C8-3344F0FFA0DF}" name="VALOR MATERIALES" dataDxfId="327" totalsRowDxfId="326"/>
+    <tableColumn id="10" xr3:uid="{122AE0D8-1F8F-45DB-AD40-9D3EB12570F7}" name="IVA 19%" dataDxfId="325" totalsRowDxfId="324"/>
+    <tableColumn id="11" xr3:uid="{7F9337DF-A066-47B1-BF46-BA371040214D}" name="PORTERIA" dataDxfId="323" totalsRowDxfId="322"/>
+    <tableColumn id="12" xr3:uid="{3CDD930A-C085-4794-95CA-22C887949175}" name="FORMA DE PAGO" dataDxfId="321"/>
+    <tableColumn id="13" xr3:uid="{F48495AF-F6C9-49C3-B2EF-37493691FD1F}" name="TOTAL SERVICIO" dataDxfId="320" totalsRowDxfId="319">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{0E264A16-9366-478D-BFDA-A1EC5DEF28F8}" name="X50%/X25%" dataDxfId="390" totalsRowDxfId="389"/>
-    <tableColumn id="15" xr3:uid="{CDD3C1B0-7C9B-4B45-A89B-3E915E39435F}" name="PARA JG" dataDxfId="388" totalsRowDxfId="387">
+    <tableColumn id="14" xr3:uid="{0E264A16-9366-478D-BFDA-A1EC5DEF28F8}" name="X50%/X25%" dataDxfId="318" totalsRowDxfId="317"/>
+    <tableColumn id="15" xr3:uid="{CDD3C1B0-7C9B-4B45-A89B-3E915E39435F}" name="PARA JG" dataDxfId="316" totalsRowDxfId="315">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{174EF292-3C67-4C49-9A52-8FE4A18E7B12}" name="PARA ABRECAR" dataDxfId="386" totalsRowDxfId="385">
+    <tableColumn id="16" xr3:uid="{174EF292-3C67-4C49-9A52-8FE4A18E7B12}" name="PARA ABRECAR" dataDxfId="314" totalsRowDxfId="313">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{379B4F42-6BC6-41DE-81C7-5D50E0C5241A}" name="ESTADO DEL SERVICIO" dataDxfId="384" totalsRowDxfId="383"/>
-    <tableColumn id="18" xr3:uid="{1216CEED-DB81-4C1C-9006-3BC156C3217C}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="382" totalsRowDxfId="381"/>
-    <tableColumn id="19" xr3:uid="{75B8623C-4968-4E88-B6B7-5E69821F737F}" name="NOTAS " totalsRowFunction="count" dataDxfId="380" totalsRowDxfId="379"/>
+    <tableColumn id="17" xr3:uid="{379B4F42-6BC6-41DE-81C7-5D50E0C5241A}" name="ESTADO DEL SERVICIO" dataDxfId="312" totalsRowDxfId="311"/>
+    <tableColumn id="18" xr3:uid="{1216CEED-DB81-4C1C-9006-3BC156C3217C}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="310" totalsRowDxfId="309"/>
+    <tableColumn id="19" xr3:uid="{75B8623C-4968-4E88-B6B7-5E69821F737F}" name="NOTAS " totalsRowFunction="count" dataDxfId="308" totalsRowDxfId="307"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6B846E70-E2BF-4CEF-B095-8D839C371C7F}" name="Tabla14567" displayName="Tabla14567" ref="A1:S42" totalsRowCount="1" headerRowDxfId="378" dataDxfId="377">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6B846E70-E2BF-4CEF-B095-8D839C371C7F}" name="Tabla14567" displayName="Tabla14567" ref="A1:S42" totalsRowCount="1" headerRowDxfId="300" dataDxfId="299">
   <autoFilter ref="A1:S41" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -5997,38 +6018,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{714DB627-597B-40F5-8DE6-1DF144AE6820}" name="FECHA" totalsRowLabel="Total" dataDxfId="376" totalsRowDxfId="375"/>
-    <tableColumn id="2" xr3:uid="{88D21434-5D0F-4674-BDEE-8CC0788915A4}" name="DIRECCION" dataDxfId="374" totalsRowDxfId="373"/>
-    <tableColumn id="3" xr3:uid="{E32BD3E8-BF18-49DA-B123-76C0756BD1DA}" name="NOMBRE CLIENTE" dataDxfId="372" totalsRowDxfId="371"/>
-    <tableColumn id="4" xr3:uid="{3517C161-445C-4B3B-A68F-9A3C268787D3}" name="TORRE/APTO" dataDxfId="370"/>
-    <tableColumn id="5" xr3:uid="{C553111C-29C6-4403-BC45-908AAB0EC04A}" name="SERVICIO REALIZADO" dataDxfId="369" totalsRowDxfId="368"/>
-    <tableColumn id="6" xr3:uid="{DCE8AFCA-7869-4358-9104-4112D5020EC4}" name="DOMICILIO" dataDxfId="367" totalsRowDxfId="366" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{3F978537-BB51-40F4-A7F2-A73D8F8A934F}" name="VALOR SERVICIO" dataDxfId="365" totalsRowDxfId="364"/>
-    <tableColumn id="8" xr3:uid="{0A59C17C-D158-428B-8387-E0EDB61CB196}" name="MATERIALES" dataDxfId="363" totalsRowDxfId="362"/>
-    <tableColumn id="9" xr3:uid="{903BA4C8-A3C2-4E6F-BECE-BA4D82ED9611}" name="VALOR MATERIALES" dataDxfId="361" totalsRowDxfId="360"/>
-    <tableColumn id="10" xr3:uid="{B568D9A1-4F65-4F8C-BC98-5CE19A1E6002}" name="IVA 19%" dataDxfId="359" totalsRowDxfId="358"/>
-    <tableColumn id="11" xr3:uid="{9FD03442-E4B8-4F4A-8C4F-E0D085CBE3A2}" name="PORTERIA" dataDxfId="357" totalsRowDxfId="356"/>
-    <tableColumn id="12" xr3:uid="{60F0AE71-17A3-47C4-928E-B9444D1DEBB5}" name="FORMA DE PAGO " dataDxfId="355"/>
-    <tableColumn id="13" xr3:uid="{5E7335A0-FEF6-4BA1-9F7D-BE383E43CAAC}" name="TOTAL SERVICIO" dataDxfId="354" totalsRowDxfId="353">
+    <tableColumn id="1" xr3:uid="{714DB627-597B-40F5-8DE6-1DF144AE6820}" name="FECHA" totalsRowLabel="Total" dataDxfId="298" totalsRowDxfId="297"/>
+    <tableColumn id="2" xr3:uid="{88D21434-5D0F-4674-BDEE-8CC0788915A4}" name="DIRECCION" dataDxfId="296" totalsRowDxfId="295"/>
+    <tableColumn id="3" xr3:uid="{E32BD3E8-BF18-49DA-B123-76C0756BD1DA}" name="NOMBRE CLIENTE" dataDxfId="294" totalsRowDxfId="293"/>
+    <tableColumn id="4" xr3:uid="{3517C161-445C-4B3B-A68F-9A3C268787D3}" name="TORRE/APTO" dataDxfId="292"/>
+    <tableColumn id="5" xr3:uid="{C553111C-29C6-4403-BC45-908AAB0EC04A}" name="SERVICIO REALIZADO" dataDxfId="291" totalsRowDxfId="290"/>
+    <tableColumn id="6" xr3:uid="{DCE8AFCA-7869-4358-9104-4112D5020EC4}" name="DOMICILIO" dataDxfId="289" totalsRowDxfId="288" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{3F978537-BB51-40F4-A7F2-A73D8F8A934F}" name="VALOR SERVICIO" dataDxfId="287" totalsRowDxfId="286"/>
+    <tableColumn id="8" xr3:uid="{0A59C17C-D158-428B-8387-E0EDB61CB196}" name="MATERIALES" dataDxfId="285" totalsRowDxfId="284"/>
+    <tableColumn id="9" xr3:uid="{903BA4C8-A3C2-4E6F-BECE-BA4D82ED9611}" name="VALOR MATERIALES" dataDxfId="283" totalsRowDxfId="282"/>
+    <tableColumn id="10" xr3:uid="{B568D9A1-4F65-4F8C-BC98-5CE19A1E6002}" name="IVA 19%" dataDxfId="281" totalsRowDxfId="280"/>
+    <tableColumn id="11" xr3:uid="{9FD03442-E4B8-4F4A-8C4F-E0D085CBE3A2}" name="PORTERIA" dataDxfId="279" totalsRowDxfId="278"/>
+    <tableColumn id="12" xr3:uid="{60F0AE71-17A3-47C4-928E-B9444D1DEBB5}" name="FORMA DE PAGO " dataDxfId="277"/>
+    <tableColumn id="13" xr3:uid="{5E7335A0-FEF6-4BA1-9F7D-BE383E43CAAC}" name="TOTAL SERVICIO" dataDxfId="276" totalsRowDxfId="275">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{A914A3D7-F0BB-4E54-9212-06F2668F4DFF}" name="X50%/X25%" dataDxfId="352" totalsRowDxfId="351"/>
-    <tableColumn id="15" xr3:uid="{5023FD9C-2775-4C44-9E67-4C241072F6BE}" name="PARA JG" dataDxfId="350" totalsRowDxfId="349">
+    <tableColumn id="14" xr3:uid="{A914A3D7-F0BB-4E54-9212-06F2668F4DFF}" name="X50%/X25%" dataDxfId="274" totalsRowDxfId="273"/>
+    <tableColumn id="15" xr3:uid="{5023FD9C-2775-4C44-9E67-4C241072F6BE}" name="PARA JG" dataDxfId="272" totalsRowDxfId="271">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{3CC141E2-AFA4-4913-BAED-ECA337F162B7}" name="PARA ABRECAR" dataDxfId="348" totalsRowDxfId="347">
+    <tableColumn id="16" xr3:uid="{3CC141E2-AFA4-4913-BAED-ECA337F162B7}" name="PARA ABRECAR" dataDxfId="270" totalsRowDxfId="269">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{1E630320-304C-437A-998F-E65910F1430C}" name="ESTADO DEL SERVICIO" dataDxfId="346" totalsRowDxfId="345"/>
-    <tableColumn id="18" xr3:uid="{00C6F989-EF5E-4069-B3D3-40B157EDE350}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="344" totalsRowDxfId="343"/>
-    <tableColumn id="19" xr3:uid="{744C0FA0-167F-4300-99A8-FFE7F1929262}" name="NOTAS " totalsRowFunction="count" dataDxfId="342" totalsRowDxfId="341"/>
+    <tableColumn id="17" xr3:uid="{1E630320-304C-437A-998F-E65910F1430C}" name="ESTADO DEL SERVICIO" dataDxfId="268" totalsRowDxfId="267"/>
+    <tableColumn id="18" xr3:uid="{00C6F989-EF5E-4069-B3D3-40B157EDE350}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="266" totalsRowDxfId="265"/>
+    <tableColumn id="19" xr3:uid="{744C0FA0-167F-4300-99A8-FFE7F1929262}" name="NOTAS " totalsRowFunction="count" dataDxfId="264" totalsRowDxfId="263"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4233D6D7-B829-4CFA-9D4A-3FA737BF65AA}" name="Tabla145678" displayName="Tabla145678" ref="A1:S41" totalsRowCount="1" headerRowDxfId="340" dataDxfId="339">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4233D6D7-B829-4CFA-9D4A-3FA737BF65AA}" name="Tabla145678" displayName="Tabla145678" ref="A1:S41" totalsRowCount="1" headerRowDxfId="256" dataDxfId="255">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -6051,38 +6072,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{E07C9A3C-C6D8-464B-8EF5-F396FABA9BE1}" name="FECHA" totalsRowLabel="Total" dataDxfId="338" totalsRowDxfId="337"/>
-    <tableColumn id="2" xr3:uid="{1A6A098E-D952-499C-96ED-9C233D840939}" name="DIRECCION" dataDxfId="336" totalsRowDxfId="335"/>
-    <tableColumn id="3" xr3:uid="{D0010E5F-68B1-47A3-9F2E-4B18AEE9783B}" name="NOMBRE CLIENTE" dataDxfId="334" totalsRowDxfId="333"/>
-    <tableColumn id="4" xr3:uid="{F76E2A6E-B436-49AB-AB58-87E162A07E6E}" name="TORRE/APTO" dataDxfId="332"/>
-    <tableColumn id="5" xr3:uid="{0AA2230E-5D5F-4272-A0DE-2F7507DFCB67}" name="SERVICIO REALIZADO" dataDxfId="331" totalsRowDxfId="330"/>
-    <tableColumn id="6" xr3:uid="{F83C533A-63E6-47E8-B4E1-77C3349AE848}" name="DOMICILIO" dataDxfId="329" totalsRowDxfId="328" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{1C4F10E4-765A-4645-8374-D9F556D558D6}" name="VALOR SERVICIO" dataDxfId="327" totalsRowDxfId="326"/>
-    <tableColumn id="8" xr3:uid="{38224342-79B1-43DE-8EEE-D0F522F52784}" name="MATERIALES" dataDxfId="325" totalsRowDxfId="324"/>
-    <tableColumn id="9" xr3:uid="{2EB3AA1F-8E31-4F7D-A59E-7886D2D80133}" name="VALOR MATERIALES" dataDxfId="323" totalsRowDxfId="322"/>
-    <tableColumn id="10" xr3:uid="{EDE45CFF-8F0A-4729-AC59-2F1A7E7E665B}" name="IVA 19%" dataDxfId="321" totalsRowDxfId="320"/>
-    <tableColumn id="11" xr3:uid="{9F85F552-1AEA-4C75-B7BC-601D6ECE3576}" name="PORTERIA" dataDxfId="319" totalsRowDxfId="318"/>
-    <tableColumn id="12" xr3:uid="{D94F26F3-BBDD-4540-B34F-A1931149813F}" name="FORMA DE PAGO " dataDxfId="317"/>
-    <tableColumn id="13" xr3:uid="{FD33B67F-7E7B-4AE3-83E7-03842134137F}" name="TOTAL SERVICIO" dataDxfId="316" totalsRowDxfId="315">
+    <tableColumn id="1" xr3:uid="{E07C9A3C-C6D8-464B-8EF5-F396FABA9BE1}" name="FECHA" totalsRowLabel="Total" dataDxfId="254" totalsRowDxfId="253"/>
+    <tableColumn id="2" xr3:uid="{1A6A098E-D952-499C-96ED-9C233D840939}" name="DIRECCION" dataDxfId="252" totalsRowDxfId="251"/>
+    <tableColumn id="3" xr3:uid="{D0010E5F-68B1-47A3-9F2E-4B18AEE9783B}" name="NOMBRE CLIENTE" dataDxfId="250" totalsRowDxfId="249"/>
+    <tableColumn id="4" xr3:uid="{F76E2A6E-B436-49AB-AB58-87E162A07E6E}" name="TORRE/APTO" dataDxfId="248"/>
+    <tableColumn id="5" xr3:uid="{0AA2230E-5D5F-4272-A0DE-2F7507DFCB67}" name="SERVICIO REALIZADO" dataDxfId="247" totalsRowDxfId="246"/>
+    <tableColumn id="6" xr3:uid="{F83C533A-63E6-47E8-B4E1-77C3349AE848}" name="DOMICILIO" dataDxfId="245" totalsRowDxfId="244" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{1C4F10E4-765A-4645-8374-D9F556D558D6}" name="VALOR SERVICIO" dataDxfId="243" totalsRowDxfId="242"/>
+    <tableColumn id="8" xr3:uid="{38224342-79B1-43DE-8EEE-D0F522F52784}" name="MATERIALES" dataDxfId="241" totalsRowDxfId="240"/>
+    <tableColumn id="9" xr3:uid="{2EB3AA1F-8E31-4F7D-A59E-7886D2D80133}" name="VALOR MATERIALES" dataDxfId="239" totalsRowDxfId="238"/>
+    <tableColumn id="10" xr3:uid="{EDE45CFF-8F0A-4729-AC59-2F1A7E7E665B}" name="IVA 19%" dataDxfId="237" totalsRowDxfId="236"/>
+    <tableColumn id="11" xr3:uid="{9F85F552-1AEA-4C75-B7BC-601D6ECE3576}" name="PORTERIA" dataDxfId="235" totalsRowDxfId="234"/>
+    <tableColumn id="12" xr3:uid="{D94F26F3-BBDD-4540-B34F-A1931149813F}" name="FORMA DE PAGO " dataDxfId="233"/>
+    <tableColumn id="13" xr3:uid="{FD33B67F-7E7B-4AE3-83E7-03842134137F}" name="TOTAL SERVICIO" dataDxfId="232" totalsRowDxfId="231">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{574DE4C9-9D95-4D52-ACBB-99EA290AF592}" name="X50%/X25%" dataDxfId="314" totalsRowDxfId="313"/>
-    <tableColumn id="15" xr3:uid="{19F5BE5D-091E-4103-A27C-7E02BB116F54}" name="PARA JG" dataDxfId="312" totalsRowDxfId="311">
+    <tableColumn id="14" xr3:uid="{574DE4C9-9D95-4D52-ACBB-99EA290AF592}" name="X50%/X25%" dataDxfId="230" totalsRowDxfId="229"/>
+    <tableColumn id="15" xr3:uid="{19F5BE5D-091E-4103-A27C-7E02BB116F54}" name="PARA JG" dataDxfId="228" totalsRowDxfId="227">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{F1F9C7C5-3D41-40E3-8489-1F206D47998D}" name="PARA ABRECAR" dataDxfId="310" totalsRowDxfId="309">
+    <tableColumn id="16" xr3:uid="{F1F9C7C5-3D41-40E3-8489-1F206D47998D}" name="PARA ABRECAR" dataDxfId="226" totalsRowDxfId="225">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{A390A234-094F-4D7C-AF12-820395FEDB2B}" name="ESTADO DEL SERVICIO" dataDxfId="308" totalsRowDxfId="307"/>
-    <tableColumn id="18" xr3:uid="{02F7B8DC-4A83-4AD7-BFD1-7C44F4CAA839}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="306" totalsRowDxfId="305"/>
-    <tableColumn id="19" xr3:uid="{26B7AF6C-079B-4277-96A6-4BFD38BF0059}" name="NOTAS " totalsRowFunction="count" dataDxfId="304" totalsRowDxfId="303"/>
+    <tableColumn id="17" xr3:uid="{A390A234-094F-4D7C-AF12-820395FEDB2B}" name="ESTADO DEL SERVICIO" dataDxfId="224" totalsRowDxfId="223"/>
+    <tableColumn id="18" xr3:uid="{02F7B8DC-4A83-4AD7-BFD1-7C44F4CAA839}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="222" totalsRowDxfId="221"/>
+    <tableColumn id="19" xr3:uid="{26B7AF6C-079B-4277-96A6-4BFD38BF0059}" name="NOTAS " totalsRowFunction="count" dataDxfId="220" totalsRowDxfId="219"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{486570DD-72C3-4211-9F4B-38B695E2EB20}" name="Tabla1456789" displayName="Tabla1456789" ref="A1:S41" totalsRowCount="1" headerRowDxfId="302" dataDxfId="301">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{486570DD-72C3-4211-9F4B-38B695E2EB20}" name="Tabla1456789" displayName="Tabla1456789" ref="A1:S41" totalsRowCount="1" headerRowDxfId="212" dataDxfId="211">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -6105,38 +6126,38 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{3B888F1E-FD67-4F86-AA29-2A965EAFE3C4}" name="FECHA" totalsRowLabel="Total" dataDxfId="300" totalsRowDxfId="299"/>
-    <tableColumn id="2" xr3:uid="{7EF15A70-0B3B-4420-9167-C7DE9525619E}" name="DIRECCION" dataDxfId="298" totalsRowDxfId="297"/>
-    <tableColumn id="3" xr3:uid="{CF8A193F-3F32-495E-8083-92DCDAE2E9C4}" name="NOMBRE CLIENTE" dataDxfId="296" totalsRowDxfId="295"/>
-    <tableColumn id="4" xr3:uid="{D56B7752-FB26-4F5C-A7E4-ED5083929D15}" name="TORRE/APTO" dataDxfId="294" totalsRowDxfId="293"/>
-    <tableColumn id="5" xr3:uid="{B830E389-3B8E-41EB-ACE7-74A4840C91A9}" name="SERVICIO REALIZADO" dataDxfId="292" totalsRowDxfId="291"/>
-    <tableColumn id="6" xr3:uid="{4D7549D5-F072-4573-8E2F-F2B4062586CE}" name="DOMICILIO" dataDxfId="290" totalsRowDxfId="289" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{44BE91C0-C27A-4436-B0D9-494C81481BD9}" name="VALOR SERVICIO" dataDxfId="288" totalsRowDxfId="287"/>
-    <tableColumn id="8" xr3:uid="{E15FF744-2BD7-421C-9D41-D742D1B5FE8C}" name="MATERIALES" dataDxfId="286" totalsRowDxfId="285"/>
-    <tableColumn id="9" xr3:uid="{34230311-5EB0-4564-A8FF-85B470F2351F}" name="VALOR MATERIALES" dataDxfId="284" totalsRowDxfId="283"/>
-    <tableColumn id="10" xr3:uid="{A52B9B2D-6D58-41C4-9DAD-81D21868B2F4}" name="IVA 19%" dataDxfId="282" totalsRowDxfId="281"/>
-    <tableColumn id="11" xr3:uid="{E5CB6D2A-48AD-4BBE-89DD-DC2C080E54E3}" name="PORTERIA" dataDxfId="280" totalsRowDxfId="279"/>
-    <tableColumn id="12" xr3:uid="{5A3C93C6-6D8A-4CEC-9AD7-6622B5583AB4}" name="FORMA DE PAGO " dataDxfId="278"/>
-    <tableColumn id="13" xr3:uid="{D43E7292-D975-47ED-922A-20C879B75B71}" name="TOTAL SERVICIO" dataDxfId="277" totalsRowDxfId="276">
+    <tableColumn id="1" xr3:uid="{3B888F1E-FD67-4F86-AA29-2A965EAFE3C4}" name="FECHA" totalsRowLabel="Total" dataDxfId="210" totalsRowDxfId="209"/>
+    <tableColumn id="2" xr3:uid="{7EF15A70-0B3B-4420-9167-C7DE9525619E}" name="DIRECCION" dataDxfId="208" totalsRowDxfId="207"/>
+    <tableColumn id="3" xr3:uid="{CF8A193F-3F32-495E-8083-92DCDAE2E9C4}" name="NOMBRE CLIENTE" dataDxfId="206" totalsRowDxfId="205"/>
+    <tableColumn id="4" xr3:uid="{D56B7752-FB26-4F5C-A7E4-ED5083929D15}" name="TORRE/APTO" dataDxfId="204" totalsRowDxfId="203"/>
+    <tableColumn id="5" xr3:uid="{B830E389-3B8E-41EB-ACE7-74A4840C91A9}" name="SERVICIO REALIZADO" dataDxfId="202" totalsRowDxfId="201"/>
+    <tableColumn id="6" xr3:uid="{4D7549D5-F072-4573-8E2F-F2B4062586CE}" name="DOMICILIO" dataDxfId="200" totalsRowDxfId="199" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{44BE91C0-C27A-4436-B0D9-494C81481BD9}" name="VALOR SERVICIO" dataDxfId="198" totalsRowDxfId="197"/>
+    <tableColumn id="8" xr3:uid="{E15FF744-2BD7-421C-9D41-D742D1B5FE8C}" name="MATERIALES" dataDxfId="196" totalsRowDxfId="195"/>
+    <tableColumn id="9" xr3:uid="{34230311-5EB0-4564-A8FF-85B470F2351F}" name="VALOR MATERIALES" dataDxfId="194" totalsRowDxfId="193"/>
+    <tableColumn id="10" xr3:uid="{A52B9B2D-6D58-41C4-9DAD-81D21868B2F4}" name="IVA 19%" dataDxfId="192" totalsRowDxfId="191"/>
+    <tableColumn id="11" xr3:uid="{E5CB6D2A-48AD-4BBE-89DD-DC2C080E54E3}" name="PORTERIA" dataDxfId="190" totalsRowDxfId="189"/>
+    <tableColumn id="12" xr3:uid="{5A3C93C6-6D8A-4CEC-9AD7-6622B5583AB4}" name="FORMA DE PAGO " dataDxfId="188"/>
+    <tableColumn id="13" xr3:uid="{D43E7292-D975-47ED-922A-20C879B75B71}" name="TOTAL SERVICIO" dataDxfId="187" totalsRowDxfId="186">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{A183837E-B67E-4FF9-B707-B5FB3439F80A}" name="X50%/X25%" dataDxfId="275" totalsRowDxfId="274"/>
-    <tableColumn id="15" xr3:uid="{686A4845-69ED-4068-9B0C-2A8D30EAE21C}" name="PARA JG" dataDxfId="273" totalsRowDxfId="272">
+    <tableColumn id="14" xr3:uid="{A183837E-B67E-4FF9-B707-B5FB3439F80A}" name="X50%/X25%" dataDxfId="185" totalsRowDxfId="184"/>
+    <tableColumn id="15" xr3:uid="{686A4845-69ED-4068-9B0C-2A8D30EAE21C}" name="PARA JG" dataDxfId="183" totalsRowDxfId="182">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{F8654BA2-147E-4B02-B8AD-A3ABCA9FD8B8}" name="PARA ABRECAR" dataDxfId="271" totalsRowDxfId="270">
+    <tableColumn id="16" xr3:uid="{F8654BA2-147E-4B02-B8AD-A3ABCA9FD8B8}" name="PARA ABRECAR" dataDxfId="181" totalsRowDxfId="180">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{4662DB30-1134-4599-9275-B92F7899D3ED}" name="ESTADO DEL SERVICIO" dataDxfId="269" totalsRowDxfId="268"/>
-    <tableColumn id="18" xr3:uid="{6542B359-24E7-4738-BCEA-B75973A57699}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="267" totalsRowDxfId="266"/>
-    <tableColumn id="19" xr3:uid="{A450A664-4EBD-4D5A-87FD-564564C00EDB}" name="NOTAS " totalsRowFunction="count" dataDxfId="265" totalsRowDxfId="264"/>
+    <tableColumn id="17" xr3:uid="{4662DB30-1134-4599-9275-B92F7899D3ED}" name="ESTADO DEL SERVICIO" dataDxfId="179" totalsRowDxfId="178"/>
+    <tableColumn id="18" xr3:uid="{6542B359-24E7-4738-BCEA-B75973A57699}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="177" totalsRowDxfId="176"/>
+    <tableColumn id="19" xr3:uid="{A450A664-4EBD-4D5A-87FD-564564C00EDB}" name="NOTAS " totalsRowFunction="count" dataDxfId="175" totalsRowDxfId="174"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{7D16E0DC-174B-4352-8C49-C57F1352E89E}" name="Tabla145678910" displayName="Tabla145678910" ref="A1:S41" totalsRowCount="1" headerRowDxfId="263" dataDxfId="262">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{7D16E0DC-174B-4352-8C49-C57F1352E89E}" name="Tabla145678910" displayName="Tabla145678910" ref="A1:S41" totalsRowCount="1" headerRowDxfId="167" dataDxfId="166">
   <autoFilter ref="A1:S40" xr:uid="{3F2D5825-CFDA-4ADD-8BFF-F4D8F9B37467}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -6159,40 +6180,40 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{C2D31F11-B0BA-45D5-A040-55DD65048FCC}" name="FECHA" totalsRowLabel="Total" dataDxfId="261" totalsRowDxfId="260"/>
-    <tableColumn id="2" xr3:uid="{B04728B5-7F2E-44D9-B119-EB74F66021FF}" name="DIRECCION" dataDxfId="259" totalsRowDxfId="258"/>
-    <tableColumn id="3" xr3:uid="{34B0BF1B-1E1D-4372-8717-57CDDED3EB64}" name="NOMBRE CLIENTE" dataDxfId="257" totalsRowDxfId="256"/>
-    <tableColumn id="4" xr3:uid="{967AF0A4-2F6B-4902-9EE6-06F9B0ACEC7A}" name="TORRE/APTO" dataDxfId="255"/>
-    <tableColumn id="5" xr3:uid="{B7841EF7-1A13-48C8-9A8F-D8ECA1354F32}" name="SERVICIO REALIZADO" dataDxfId="254" totalsRowDxfId="253"/>
-    <tableColumn id="6" xr3:uid="{A5BD60C3-0F5D-4F7B-93D1-EAD5F5FF1B0B}" name="DOMICILIO" dataDxfId="252" totalsRowDxfId="251" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{FE128F0E-0F30-41E9-92BC-73866EC54093}" name="VALOR SERVICIO" dataDxfId="250" totalsRowDxfId="249"/>
-    <tableColumn id="8" xr3:uid="{DBFFBE5A-0B3E-47AA-B221-A8BE3A93FA28}" name="MATERIALES" dataDxfId="248" totalsRowDxfId="247"/>
-    <tableColumn id="9" xr3:uid="{E9AB51AF-E4E3-40DA-AB54-3DB3F1C528DD}" name="VALOR MATERIALES" dataDxfId="246" totalsRowDxfId="245"/>
-    <tableColumn id="10" xr3:uid="{0743077C-2C9E-4460-A4B5-D885E65A0FDD}" name="IVA 19%" dataDxfId="244" totalsRowDxfId="243"/>
-    <tableColumn id="11" xr3:uid="{5A1B6F72-1F83-47CD-8CB7-E840972ECC16}" name="PORTERIA" dataDxfId="242" totalsRowDxfId="241"/>
-    <tableColumn id="12" xr3:uid="{85785C1E-0B1B-4AE4-9899-F57CBFBDFCAB}" name="FORMA DE PAGO " dataDxfId="240"/>
-    <tableColumn id="13" xr3:uid="{14E1E447-46F1-4DAB-8DAF-E7F4E090CDF7}" name="TOTAL SERVICIO" dataDxfId="239" totalsRowDxfId="238">
+    <tableColumn id="1" xr3:uid="{C2D31F11-B0BA-45D5-A040-55DD65048FCC}" name="FECHA" totalsRowLabel="Total" dataDxfId="165" totalsRowDxfId="164"/>
+    <tableColumn id="2" xr3:uid="{B04728B5-7F2E-44D9-B119-EB74F66021FF}" name="DIRECCION" dataDxfId="163" totalsRowDxfId="162"/>
+    <tableColumn id="3" xr3:uid="{34B0BF1B-1E1D-4372-8717-57CDDED3EB64}" name="NOMBRE CLIENTE" dataDxfId="161" totalsRowDxfId="160"/>
+    <tableColumn id="4" xr3:uid="{967AF0A4-2F6B-4902-9EE6-06F9B0ACEC7A}" name="TORRE/APTO" dataDxfId="159"/>
+    <tableColumn id="5" xr3:uid="{B7841EF7-1A13-48C8-9A8F-D8ECA1354F32}" name="SERVICIO REALIZADO" dataDxfId="158" totalsRowDxfId="157"/>
+    <tableColumn id="6" xr3:uid="{A5BD60C3-0F5D-4F7B-93D1-EAD5F5FF1B0B}" name="DOMICILIO" dataDxfId="156" totalsRowDxfId="155" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{FE128F0E-0F30-41E9-92BC-73866EC54093}" name="VALOR SERVICIO" dataDxfId="154" totalsRowDxfId="153"/>
+    <tableColumn id="8" xr3:uid="{DBFFBE5A-0B3E-47AA-B221-A8BE3A93FA28}" name="MATERIALES" dataDxfId="152" totalsRowDxfId="151"/>
+    <tableColumn id="9" xr3:uid="{E9AB51AF-E4E3-40DA-AB54-3DB3F1C528DD}" name="VALOR MATERIALES" dataDxfId="150" totalsRowDxfId="149"/>
+    <tableColumn id="10" xr3:uid="{0743077C-2C9E-4460-A4B5-D885E65A0FDD}" name="IVA 19%" dataDxfId="148" totalsRowDxfId="147"/>
+    <tableColumn id="11" xr3:uid="{5A1B6F72-1F83-47CD-8CB7-E840972ECC16}" name="PORTERIA" dataDxfId="146" totalsRowDxfId="145"/>
+    <tableColumn id="12" xr3:uid="{85785C1E-0B1B-4AE4-9899-F57CBFBDFCAB}" name="FORMA DE PAGO " dataDxfId="144"/>
+    <tableColumn id="13" xr3:uid="{14E1E447-46F1-4DAB-8DAF-E7F4E090CDF7}" name="TOTAL SERVICIO" dataDxfId="143" totalsRowDxfId="142">
       <calculatedColumnFormula>(F2+G2-I2-K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{D122C8FB-7087-4CB5-A785-D8505B2DF602}" name="X50%/X25%" dataDxfId="237" totalsRowDxfId="236"/>
-    <tableColumn id="15" xr3:uid="{3B9C0FF4-0A40-425E-AF56-D6DD8681A011}" name="PARA JG" dataDxfId="235" totalsRowDxfId="234">
+    <tableColumn id="14" xr3:uid="{D122C8FB-7087-4CB5-A785-D8505B2DF602}" name="X50%/X25%" dataDxfId="141" totalsRowDxfId="140"/>
+    <tableColumn id="15" xr3:uid="{3B9C0FF4-0A40-425E-AF56-D6DD8681A011}" name="PARA JG" dataDxfId="139" totalsRowDxfId="138">
       <calculatedColumnFormula>IF(N2="X25%",M2*0.25,IF(N2="X50%",M2/2,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{24D7D408-20DD-481D-ADD8-31427D9706CB}" name="PARA ABRECAR" dataDxfId="233" totalsRowDxfId="232">
+    <tableColumn id="16" xr3:uid="{24D7D408-20DD-481D-ADD8-31427D9706CB}" name="PARA ABRECAR" dataDxfId="137" totalsRowDxfId="136">
       <calculatedColumnFormula>(M2/2+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{3E22CA66-02BA-4F3A-BC78-1C5E81DF6614}" name="ESTADO DEL SERVICIO" dataDxfId="231" totalsRowDxfId="230"/>
-    <tableColumn id="18" xr3:uid="{BC2DF013-F795-4D1C-9028-1375AF4523CB}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="229" totalsRowDxfId="228"/>
-    <tableColumn id="19" xr3:uid="{72057D85-7D90-4121-8CBD-7448786FF9BC}" name="NOTAS " totalsRowFunction="count" dataDxfId="227" totalsRowDxfId="226"/>
+    <tableColumn id="17" xr3:uid="{3E22CA66-02BA-4F3A-BC78-1C5E81DF6614}" name="ESTADO DEL SERVICIO" dataDxfId="135" totalsRowDxfId="134"/>
+    <tableColumn id="18" xr3:uid="{BC2DF013-F795-4D1C-9028-1375AF4523CB}" name="FECHA DE RELACION DEL SERVICIO" dataDxfId="133" totalsRowDxfId="132"/>
+    <tableColumn id="19" xr3:uid="{72057D85-7D90-4121-8CBD-7448786FF9BC}" name="NOTAS " totalsRowFunction="count" dataDxfId="131" totalsRowDxfId="130"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6230,7 +6251,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6336,7 +6357,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6478,7 +6499,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6495,33 +6516,33 @@
       <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.4765625" style="32" customWidth="1"/>
-    <col min="2" max="2" width="21.7890625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.8125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="34.03125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.0859375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.52734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.45703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.484375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.53125" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.14453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.6015625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.390625" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.76171875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.453125" style="32" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="34" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.08984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.54296875" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7265625" style="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.1796875" style="10" customWidth="1"/>
-    <col min="16" max="16" width="13.5859375" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.1953125" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.86328125" style="32" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="47.484375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.390625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="22.1953125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.24609375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.81640625" style="32" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="47.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -6589,7 +6610,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>45659</v>
       </c>
@@ -6653,7 +6674,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" s="31">
         <v>45659</v>
       </c>
@@ -6705,7 +6726,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="31">
         <v>45661</v>
       </c>
@@ -6757,7 +6778,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" s="31">
         <v>45664</v>
       </c>
@@ -6809,7 +6830,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="31">
         <v>45665</v>
       </c>
@@ -6864,7 +6885,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="31">
         <v>45665</v>
       </c>
@@ -6918,7 +6939,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="31">
         <v>45666</v>
       </c>
@@ -6969,7 +6990,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="31">
         <v>45667</v>
       </c>
@@ -7024,7 +7045,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="31">
         <v>45677</v>
       </c>
@@ -7069,7 +7090,7 @@
       <c r="R10" s="31"/>
       <c r="S10" s="14"/>
     </row>
-    <row r="11" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="31">
         <v>45678</v>
       </c>
@@ -7120,7 +7141,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="31">
         <v>45679</v>
       </c>
@@ -7161,7 +7182,7 @@
       <c r="R12" s="31"/>
       <c r="S12" s="14"/>
     </row>
-    <row r="13" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="31">
         <v>45679</v>
       </c>
@@ -7209,7 +7230,7 @@
       <c r="R13" s="31"/>
       <c r="S13" s="14"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="31">
         <v>45679</v>
       </c>
@@ -7260,7 +7281,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="31">
         <v>45680</v>
       </c>
@@ -7306,7 +7327,7 @@
       <c r="R15" s="31"/>
       <c r="S15" s="14"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="31">
         <v>45680</v>
       </c>
@@ -7351,7 +7372,7 @@
       <c r="R16" s="31"/>
       <c r="S16" s="14"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="31">
         <v>45681</v>
       </c>
@@ -7403,7 +7424,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="31">
         <v>45681</v>
       </c>
@@ -7455,7 +7476,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="31">
         <v>45684</v>
       </c>
@@ -7508,7 +7529,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="31">
         <v>45685</v>
       </c>
@@ -7553,7 +7574,7 @@
       <c r="R20" s="31"/>
       <c r="S20" s="14"/>
     </row>
-    <row r="21" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="31">
         <v>45685</v>
       </c>
@@ -7596,7 +7617,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="31">
         <v>45687</v>
       </c>
@@ -7635,7 +7656,7 @@
       <c r="R22" s="31"/>
       <c r="S22" s="14"/>
     </row>
-    <row r="23" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="31">
         <v>45687</v>
       </c>
@@ -7676,7 +7697,7 @@
       <c r="R23" s="31"/>
       <c r="S23" s="14"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="31">
         <v>45687</v>
       </c>
@@ -7721,7 +7742,7 @@
       <c r="R24" s="31"/>
       <c r="S24" s="14"/>
     </row>
-    <row r="25" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="31">
         <v>45688</v>
       </c>
@@ -7766,7 +7787,7 @@
       <c r="R25" s="31"/>
       <c r="S25" s="14"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="31"/>
       <c r="B26" s="1"/>
       <c r="C26" s="14"/>
@@ -7795,7 +7816,7 @@
       <c r="R26" s="31"/>
       <c r="S26" s="14"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="31"/>
       <c r="B27" s="1"/>
       <c r="C27" s="14"/>
@@ -7824,7 +7845,7 @@
       <c r="R27" s="31"/>
       <c r="S27" s="14"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="31"/>
       <c r="B28" s="1"/>
       <c r="C28" s="14"/>
@@ -7853,7 +7874,7 @@
       <c r="R28" s="31"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="31"/>
       <c r="B29" s="1"/>
       <c r="C29" s="14"/>
@@ -7882,7 +7903,7 @@
       <c r="R29" s="31"/>
       <c r="S29" s="14"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="31"/>
       <c r="B30" s="1"/>
       <c r="C30" s="14"/>
@@ -7911,7 +7932,7 @@
       <c r="R30" s="31"/>
       <c r="S30" s="14"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="31"/>
       <c r="B31" s="1"/>
       <c r="C31" s="14"/>
@@ -7940,7 +7961,7 @@
       <c r="R31" s="31"/>
       <c r="S31" s="14"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="31"/>
       <c r="B32" s="1"/>
       <c r="C32" s="14"/>
@@ -7969,7 +7990,7 @@
       <c r="R32" s="31"/>
       <c r="S32" s="14"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="31"/>
       <c r="B33" s="1"/>
       <c r="C33" s="14"/>
@@ -7998,7 +8019,7 @@
       <c r="R33" s="31"/>
       <c r="S33" s="14"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="31"/>
       <c r="B34" s="1"/>
       <c r="C34" s="14"/>
@@ -8027,7 +8048,7 @@
       <c r="R34" s="31"/>
       <c r="S34" s="14"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="31"/>
       <c r="B35" s="1"/>
       <c r="C35" s="14"/>
@@ -8056,7 +8077,7 @@
       <c r="R35" s="31"/>
       <c r="S35" s="14"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="31"/>
       <c r="B36" s="1"/>
       <c r="C36" s="14"/>
@@ -8085,7 +8106,7 @@
       <c r="R36" s="31"/>
       <c r="S36" s="14"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="31"/>
       <c r="B37" s="1"/>
       <c r="C37" s="14"/>
@@ -8114,7 +8135,7 @@
       <c r="R37" s="31"/>
       <c r="S37" s="14"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="31"/>
       <c r="B38" s="1"/>
       <c r="C38" s="14"/>
@@ -8143,7 +8164,7 @@
       <c r="R38" s="31"/>
       <c r="S38" s="14"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="31"/>
       <c r="B39" s="1"/>
       <c r="C39" s="14"/>
@@ -8172,7 +8193,7 @@
       <c r="R39" s="31"/>
       <c r="S39" s="14"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="31"/>
       <c r="B40" s="1"/>
       <c r="C40" s="14"/>
@@ -8201,7 +8222,7 @@
       <c r="R40" s="31"/>
       <c r="S40" s="14"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="32" t="s">
         <v>119</v>
       </c>
@@ -8213,22 +8234,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="129" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="564" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="563" priority="3" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="562" priority="4" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="561" priority="5" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="560" priority="6" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="559" priority="7" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8262,32 +8283,32 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.20703125" style="43" customWidth="1"/>
-    <col min="2" max="2" width="25.01953125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="22.8671875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="41.1640625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="17.08203125" style="44" customWidth="1"/>
-    <col min="7" max="7" width="16.41015625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="39.546875" customWidth="1"/>
-    <col min="9" max="9" width="19.234375" style="20" customWidth="1"/>
-    <col min="10" max="10" width="11.56640625" style="18" customWidth="1"/>
-    <col min="11" max="11" width="11.8359375" style="10" customWidth="1"/>
-    <col min="12" max="12" width="17.484375" customWidth="1"/>
-    <col min="13" max="13" width="16.27734375" style="10" customWidth="1"/>
-    <col min="14" max="14" width="12.5078125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="11.8359375" style="10" customWidth="1"/>
-    <col min="16" max="16" width="15.46875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="25.421875" style="12" customWidth="1"/>
-    <col min="18" max="18" width="36.58984375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="58.11328125" style="15" customWidth="1"/>
-    <col min="28" max="28" width="17.75390625" customWidth="1"/>
+    <col min="1" max="1" width="31.1796875" style="43" customWidth="1"/>
+    <col min="2" max="2" width="25" style="15" customWidth="1"/>
+    <col min="3" max="3" width="22.90625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="41.1796875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" style="44" customWidth="1"/>
+    <col min="7" max="7" width="16.36328125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="39.54296875" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" style="20" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" style="18" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="17.453125" customWidth="1"/>
+    <col min="13" max="13" width="16.26953125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" style="9" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="15.453125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="25.453125" style="12" customWidth="1"/>
+    <col min="18" max="18" width="36.54296875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="58.08984375" style="15" customWidth="1"/>
+    <col min="28" max="28" width="17.7265625" customWidth="1"/>
     <col min="29" max="29" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -8355,7 +8376,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="42">
         <v>45931</v>
       </c>
@@ -8415,7 +8436,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" s="42">
         <v>45933</v>
       </c>
@@ -8472,7 +8493,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="42">
         <v>45933</v>
       </c>
@@ -8518,7 +8539,7 @@
       </c>
       <c r="AC4" s="14"/>
     </row>
-    <row r="5" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="42">
         <v>45936</v>
       </c>
@@ -8578,7 +8599,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="42">
         <v>45936</v>
       </c>
@@ -8622,7 +8643,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="42">
         <v>45936</v>
       </c>
@@ -8666,7 +8687,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="42">
         <v>45937</v>
       </c>
@@ -8722,7 +8743,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="42">
         <v>45938</v>
       </c>
@@ -8767,7 +8788,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="14"/>
     </row>
-    <row r="10" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="42">
         <v>45944</v>
       </c>
@@ -8816,7 +8837,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="42">
         <v>45951</v>
       </c>
@@ -8871,7 +8892,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="42">
         <v>45952</v>
       </c>
@@ -8923,7 +8944,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="42">
         <v>45952</v>
       </c>
@@ -8980,7 +9001,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="42">
         <v>45953</v>
       </c>
@@ -9037,7 +9058,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="42">
         <v>45953</v>
       </c>
@@ -9091,7 +9112,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="42">
         <v>45957</v>
       </c>
@@ -9143,7 +9164,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="42">
         <v>45958</v>
       </c>
@@ -9196,7 +9217,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="42">
         <v>45958</v>
       </c>
@@ -9235,7 +9256,7 @@
       <c r="R18" s="2"/>
       <c r="S18" s="14"/>
     </row>
-    <row r="19" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="42">
         <v>45959</v>
       </c>
@@ -9292,7 +9313,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="42">
         <v>45960</v>
       </c>
@@ -9347,7 +9368,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="42">
         <v>45961</v>
       </c>
@@ -9388,7 +9409,7 @@
       <c r="R21" s="2"/>
       <c r="S21" s="14"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="42"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -9417,7 +9438,7 @@
       <c r="R22" s="2"/>
       <c r="S22" s="14"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="42"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -9446,7 +9467,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="14"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="42"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -9475,7 +9496,7 @@
       <c r="R24" s="2"/>
       <c r="S24" s="14"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="42"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -9504,7 +9525,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="14"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="42"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -9533,7 +9554,7 @@
       <c r="R26" s="2"/>
       <c r="S26" s="14"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="42"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -9562,7 +9583,7 @@
       <c r="R27" s="2"/>
       <c r="S27" s="14"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="42"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -9591,7 +9612,7 @@
       <c r="R28" s="2"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="42"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -9620,7 +9641,7 @@
       <c r="R29" s="2"/>
       <c r="S29" s="14"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="42"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -9649,7 +9670,7 @@
       <c r="R30" s="2"/>
       <c r="S30" s="14"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="42"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -9678,7 +9699,7 @@
       <c r="R31" s="2"/>
       <c r="S31" s="14"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="42"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -9707,7 +9728,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="14"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="42"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -9736,7 +9757,7 @@
       <c r="R33" s="2"/>
       <c r="S33" s="14"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="42"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -9765,7 +9786,7 @@
       <c r="R34" s="2"/>
       <c r="S34" s="14"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="42"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -9794,7 +9815,7 @@
       <c r="R35" s="2"/>
       <c r="S35" s="14"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="42"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -9823,7 +9844,7 @@
       <c r="R36" s="2"/>
       <c r="S36" s="14"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="42"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -9852,7 +9873,7 @@
       <c r="R37" s="2"/>
       <c r="S37" s="14"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="42"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -9881,7 +9902,7 @@
       <c r="R38" s="2"/>
       <c r="S38" s="14"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="42"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -9910,7 +9931,7 @@
       <c r="R39" s="2"/>
       <c r="S39" s="14"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="42"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -9939,7 +9960,7 @@
       <c r="R40" s="2"/>
       <c r="S40" s="14"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="42"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -9968,7 +9989,7 @@
       <c r="R41" s="2"/>
       <c r="S41" s="14"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="43" t="s">
         <v>119</v>
       </c>
@@ -9980,22 +10001,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S42">
-    <cfRule type="expression" dxfId="33" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10029,33 +10050,33 @@
       <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23.9453125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="17.484375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="18.5625" customWidth="1"/>
-    <col min="5" max="5" width="42.23828125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="17.08203125" style="44" customWidth="1"/>
-    <col min="7" max="7" width="16.41015625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="39.546875" customWidth="1"/>
-    <col min="9" max="9" width="19.234375" style="47" customWidth="1"/>
-    <col min="10" max="10" width="11.56640625" style="18" customWidth="1"/>
-    <col min="11" max="11" width="11.8359375" style="10" customWidth="1"/>
-    <col min="12" max="12" width="17.484375" customWidth="1"/>
-    <col min="13" max="13" width="16.27734375" style="10" customWidth="1"/>
-    <col min="14" max="14" width="12.5078125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="11.8359375" style="10" customWidth="1"/>
-    <col min="16" max="16" width="15.46875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="25.421875" style="12" customWidth="1"/>
-    <col min="18" max="18" width="36.58984375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="47.62109375" style="15" customWidth="1"/>
-    <col min="20" max="20" width="10.76171875" style="15"/>
-    <col min="28" max="28" width="17.75390625" customWidth="1"/>
+    <col min="1" max="1" width="33.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="23.90625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" customWidth="1"/>
+    <col min="5" max="5" width="42.26953125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" style="44" customWidth="1"/>
+    <col min="7" max="7" width="16.36328125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="39.54296875" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" style="47" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" style="18" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="17.453125" customWidth="1"/>
+    <col min="13" max="13" width="16.26953125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" style="9" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="15.453125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="25.453125" style="12" customWidth="1"/>
+    <col min="18" max="18" width="36.54296875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="47.6328125" style="15" customWidth="1"/>
+    <col min="20" max="20" width="10.7265625" style="15"/>
+    <col min="28" max="28" width="17.7265625" customWidth="1"/>
     <col min="29" max="29" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10123,7 +10144,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>45965</v>
       </c>
@@ -10188,7 +10209,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>45968</v>
       </c>
@@ -10246,7 +10267,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>45968</v>
       </c>
@@ -10301,7 +10322,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>45968</v>
       </c>
@@ -10353,7 +10374,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>45971</v>
       </c>
@@ -10409,7 +10430,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>45971</v>
       </c>
@@ -10462,7 +10483,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>45972</v>
       </c>
@@ -10514,7 +10535,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>45973</v>
       </c>
@@ -10563,7 +10584,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>45973</v>
       </c>
@@ -10608,7 +10629,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>45975</v>
       </c>
@@ -10659,7 +10680,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>45979</v>
       </c>
@@ -10710,7 +10731,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>45979</v>
       </c>
@@ -10765,7 +10786,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>45980</v>
       </c>
@@ -10819,7 +10840,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>45980</v>
       </c>
@@ -10872,7 +10893,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>45980</v>
       </c>
@@ -10926,7 +10947,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="81" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="87" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>45982</v>
       </c>
@@ -10983,7 +11004,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>45985</v>
       </c>
@@ -11034,7 +11055,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>45985</v>
       </c>
@@ -11075,7 +11096,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>45986</v>
       </c>
@@ -11120,7 +11141,7 @@
       <c r="R20" s="2"/>
       <c r="S20" s="14"/>
     </row>
-    <row r="21" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>45986</v>
       </c>
@@ -11172,7 +11193,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>45987</v>
       </c>
@@ -11224,7 +11245,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -11253,7 +11274,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="14"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -11282,7 +11303,7 @@
       <c r="R24" s="2"/>
       <c r="S24" s="14"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -11311,7 +11332,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="14"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -11340,7 +11361,7 @@
       <c r="R26" s="2"/>
       <c r="S26" s="14"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -11369,7 +11390,7 @@
       <c r="R27" s="2"/>
       <c r="S27" s="14"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -11398,7 +11419,7 @@
       <c r="R28" s="2"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -11427,7 +11448,7 @@
       <c r="R29" s="2"/>
       <c r="S29" s="14"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -11456,7 +11477,7 @@
       <c r="R30" s="2"/>
       <c r="S30" s="14"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -11485,7 +11506,7 @@
       <c r="R31" s="2"/>
       <c r="S31" s="14"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -11514,7 +11535,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="14"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -11543,7 +11564,7 @@
       <c r="R33" s="2"/>
       <c r="S33" s="14"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -11572,7 +11593,7 @@
       <c r="R34" s="2"/>
       <c r="S34" s="14"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -11601,7 +11622,7 @@
       <c r="R35" s="2"/>
       <c r="S35" s="14"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -11630,7 +11651,7 @@
       <c r="R36" s="2"/>
       <c r="S36" s="14"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -11659,7 +11680,7 @@
       <c r="R37" s="2"/>
       <c r="S37" s="14"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -11688,7 +11709,7 @@
       <c r="R38" s="2"/>
       <c r="S38" s="14"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -11717,7 +11738,7 @@
       <c r="R39" s="2"/>
       <c r="S39" s="14"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -11746,7 +11767,7 @@
       <c r="R40" s="2"/>
       <c r="S40" s="14"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>119</v>
       </c>
@@ -11758,22 +11779,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="27" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11803,36 +11824,36 @@
   </sheetPr>
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.69140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="27.171875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="21.5234375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="17.484375" customWidth="1"/>
-    <col min="5" max="5" width="39.546875" style="15" customWidth="1"/>
-    <col min="6" max="6" width="17.08203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16.41015625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="39.546875" customWidth="1"/>
-    <col min="9" max="9" width="19.234375" style="18" customWidth="1"/>
-    <col min="10" max="10" width="11.56640625" style="18" customWidth="1"/>
-    <col min="11" max="11" width="11.8359375" style="10" customWidth="1"/>
-    <col min="12" max="12" width="17.484375" customWidth="1"/>
-    <col min="13" max="13" width="16.27734375" style="10" customWidth="1"/>
-    <col min="14" max="14" width="12.5078125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="11.8359375" style="10" customWidth="1"/>
-    <col min="16" max="16" width="15.46875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="25.421875" style="12" customWidth="1"/>
-    <col min="18" max="18" width="36.58984375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="47.62109375" style="15" customWidth="1"/>
-    <col min="28" max="28" width="17.75390625" customWidth="1"/>
+    <col min="1" max="1" width="35.08984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27.1796875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" customWidth="1"/>
+    <col min="5" max="5" width="39.54296875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.36328125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="39.54296875" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" style="18" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" style="18" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="17.453125" customWidth="1"/>
+    <col min="13" max="13" width="16.26953125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" style="9" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="15.453125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="25.453125" style="12" customWidth="1"/>
+    <col min="18" max="18" width="36.54296875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="47.6328125" style="15" customWidth="1"/>
+    <col min="28" max="28" width="17.7265625" customWidth="1"/>
     <col min="29" max="29" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11900,7 +11921,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>45992</v>
       </c>
@@ -11952,7 +11973,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>45994</v>
       </c>
@@ -12008,7 +12029,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>45994</v>
       </c>
@@ -12064,7 +12085,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>45996</v>
       </c>
@@ -12120,7 +12141,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>46000</v>
       </c>
@@ -12170,7 +12191,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>46000</v>
       </c>
@@ -12214,7 +12235,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>46001</v>
       </c>
@@ -12268,7 +12289,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>46001</v>
       </c>
@@ -12322,7 +12343,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>46002</v>
       </c>
@@ -12373,7 +12394,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>46002</v>
       </c>
@@ -12430,7 +12451,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>46004</v>
       </c>
@@ -12482,7 +12503,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>46006</v>
       </c>
@@ -12533,7 +12554,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>46007</v>
       </c>
@@ -12587,7 +12608,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>46007</v>
       </c>
@@ -12638,7 +12659,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>46008</v>
       </c>
@@ -12689,7 +12710,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>46010</v>
       </c>
@@ -12740,7 +12761,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>46010</v>
       </c>
@@ -12793,7 +12814,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>46013</v>
       </c>
@@ -12832,7 +12853,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>46017</v>
       </c>
@@ -12871,7 +12892,7 @@
       <c r="R20" s="2"/>
       <c r="S20" s="14"/>
     </row>
-    <row r="21" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>46017</v>
       </c>
@@ -12910,7 +12931,7 @@
       <c r="R21" s="2"/>
       <c r="S21" s="14"/>
     </row>
-    <row r="22" spans="1:19" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>46020</v>
       </c>
@@ -12955,7 +12976,7 @@
       <c r="R22" s="2"/>
       <c r="S22" s="14"/>
     </row>
-    <row r="23" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>46020</v>
       </c>
@@ -12994,7 +13015,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="14"/>
     </row>
-    <row r="24" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>46021</v>
       </c>
@@ -13036,11 +13057,17 @@
         <f t="shared" si="2"/>
         <v>50000</v>
       </c>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="14"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q24" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="R24" s="2">
+        <v>46022</v>
+      </c>
+      <c r="S24" s="14" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>46021</v>
       </c>
@@ -13079,40 +13106,74 @@
         <f t="shared" si="2"/>
         <v>35000</v>
       </c>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="14"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="14"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
+      <c r="Q25" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="R25" s="2">
+        <v>46022</v>
+      </c>
+      <c r="S25" s="14" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>46022</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>925</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>926</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>928</v>
+      </c>
+      <c r="G26" s="17">
+        <v>519091</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I26" s="17">
+        <v>11700</v>
+      </c>
+      <c r="J26" s="17">
+        <v>103782</v>
+      </c>
       <c r="K26" s="6"/>
-      <c r="L26" s="14"/>
+      <c r="L26" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="M26" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N26" s="14"/>
-      <c r="O26" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>507391</v>
+      </c>
+      <c r="N26" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" s="6">
+        <f t="shared" si="1"/>
+        <v>253695.5</v>
       </c>
       <c r="P26" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="14"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+        <v>357477.5</v>
+      </c>
+      <c r="Q26" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="R26" s="2">
+        <v>46022</v>
+      </c>
+      <c r="S26" s="14" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -13141,7 +13202,7 @@
       <c r="R27" s="2"/>
       <c r="S27" s="14"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -13170,7 +13231,7 @@
       <c r="R28" s="2"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -13199,7 +13260,7 @@
       <c r="R29" s="2"/>
       <c r="S29" s="14"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -13228,7 +13289,7 @@
       <c r="R30" s="2"/>
       <c r="S30" s="14"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -13257,7 +13318,7 @@
       <c r="R31" s="2"/>
       <c r="S31" s="14"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -13286,7 +13347,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="14"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -13315,7 +13376,7 @@
       <c r="R33" s="2"/>
       <c r="S33" s="14"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -13344,7 +13405,7 @@
       <c r="R34" s="2"/>
       <c r="S34" s="14"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -13373,7 +13434,7 @@
       <c r="R35" s="2"/>
       <c r="S35" s="14"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -13402,7 +13463,7 @@
       <c r="R36" s="2"/>
       <c r="S36" s="14"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -13431,7 +13492,7 @@
       <c r="R37" s="2"/>
       <c r="S37" s="14"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -13460,7 +13521,7 @@
       <c r="R38" s="2"/>
       <c r="S38" s="14"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -13489,7 +13550,7 @@
       <c r="R39" s="2"/>
       <c r="S39" s="14"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -13518,34 +13579,34 @@
       <c r="R40" s="2"/>
       <c r="S40" s="14"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>119</v>
       </c>
       <c r="F41" s="13"/>
       <c r="S41" s="15">
         <f>SUBTOTAL(103,Tabla145678910111213[[NOTAS ]])</f>
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="21" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13579,32 +13640,32 @@
       <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.53515625" style="34" customWidth="1"/>
-    <col min="2" max="2" width="22.46484375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="23.5390625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="19.1015625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="45.19921875" style="15" customWidth="1"/>
-    <col min="6" max="6" width="17.08203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16.41015625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="39.546875" style="15" customWidth="1"/>
-    <col min="9" max="9" width="19.234375" style="18" customWidth="1"/>
-    <col min="10" max="10" width="11.56640625" style="18" customWidth="1"/>
-    <col min="11" max="11" width="11.8359375" style="10" customWidth="1"/>
-    <col min="12" max="12" width="17.484375" customWidth="1"/>
-    <col min="13" max="13" width="16.27734375" style="10" customWidth="1"/>
-    <col min="14" max="14" width="12.5078125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="11.8359375" style="10" customWidth="1"/>
-    <col min="16" max="16" width="15.46875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="25.421875" style="23" customWidth="1"/>
-    <col min="18" max="18" width="36.58984375" style="32" customWidth="1"/>
-    <col min="19" max="19" width="47.62109375" style="15" customWidth="1"/>
-    <col min="28" max="28" width="17.75390625" customWidth="1"/>
+    <col min="1" max="1" width="30.54296875" style="34" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="23.54296875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="19.08984375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="45.1796875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.36328125" style="20" customWidth="1"/>
+    <col min="8" max="8" width="39.54296875" style="15" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" style="18" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" style="18" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="17.453125" customWidth="1"/>
+    <col min="13" max="13" width="16.26953125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" style="9" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="15.453125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="25.453125" style="23" customWidth="1"/>
+    <col min="18" max="18" width="36.54296875" style="32" customWidth="1"/>
+    <col min="19" max="19" width="47.6328125" style="15" customWidth="1"/>
+    <col min="28" max="28" width="17.7265625" customWidth="1"/>
     <col min="29" max="29" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -13672,7 +13733,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" s="33">
         <v>45689</v>
       </c>
@@ -13732,7 +13793,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="33">
         <v>45692</v>
       </c>
@@ -13786,7 +13847,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="33">
         <v>45692</v>
       </c>
@@ -13830,7 +13891,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="68.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="33">
         <v>45692</v>
       </c>
@@ -13886,7 +13947,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" s="33">
         <v>45692</v>
       </c>
@@ -13932,7 +13993,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="81" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="87" x14ac:dyDescent="0.35">
       <c r="A7" s="33">
         <v>45693</v>
       </c>
@@ -13990,7 +14051,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="33">
         <v>45695</v>
       </c>
@@ -14045,7 +14106,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="33">
         <v>45705</v>
       </c>
@@ -14097,7 +14158,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="33">
         <v>45705</v>
       </c>
@@ -14152,7 +14213,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="33">
         <v>45706</v>
       </c>
@@ -14197,7 +14258,7 @@
       <c r="R11" s="31"/>
       <c r="S11" s="14"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="33">
         <v>45706</v>
       </c>
@@ -14254,7 +14315,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="33">
         <v>45707</v>
       </c>
@@ -14306,7 +14367,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="33">
         <v>45709</v>
       </c>
@@ -14361,7 +14422,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="33">
         <v>45713</v>
       </c>
@@ -14405,7 +14466,7 @@
       <c r="R15" s="31"/>
       <c r="S15" s="14"/>
     </row>
-    <row r="16" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="33">
         <v>45714</v>
       </c>
@@ -14456,7 +14517,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="33">
         <v>45715</v>
       </c>
@@ -14505,7 +14566,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="33">
         <v>45715</v>
       </c>
@@ -14542,7 +14603,7 @@
       <c r="R18" s="31"/>
       <c r="S18" s="14"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="33"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -14568,7 +14629,7 @@
       <c r="R19" s="31"/>
       <c r="S19" s="14"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="33"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -14597,7 +14658,7 @@
       <c r="R20" s="31"/>
       <c r="S20" s="14"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="33"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -14617,7 +14678,7 @@
       <c r="R21" s="31"/>
       <c r="S21" s="14"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="33"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -14646,7 +14707,7 @@
       <c r="R22" s="31"/>
       <c r="S22" s="14"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="33"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -14675,7 +14736,7 @@
       <c r="R23" s="31"/>
       <c r="S23" s="14"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="33"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -14704,7 +14765,7 @@
       <c r="R24" s="31"/>
       <c r="S24" s="14"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="33"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -14733,7 +14794,7 @@
       <c r="R25" s="31"/>
       <c r="S25" s="14"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="33"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -14762,7 +14823,7 @@
       <c r="R26" s="31"/>
       <c r="S26" s="14"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="33"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -14791,7 +14852,7 @@
       <c r="R27" s="31"/>
       <c r="S27" s="14"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="33"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -14820,7 +14881,7 @@
       <c r="R28" s="31"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="33"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -14849,7 +14910,7 @@
       <c r="R29" s="31"/>
       <c r="S29" s="14"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="33"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -14878,7 +14939,7 @@
       <c r="R30" s="31"/>
       <c r="S30" s="14"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="33"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -14907,7 +14968,7 @@
       <c r="R31" s="31"/>
       <c r="S31" s="14"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="33"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -14936,7 +14997,7 @@
       <c r="R32" s="31"/>
       <c r="S32" s="14"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="33"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -14965,7 +15026,7 @@
       <c r="R33" s="31"/>
       <c r="S33" s="14"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="33"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -14994,7 +15055,7 @@
       <c r="R34" s="31"/>
       <c r="S34" s="14"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="33"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -15023,7 +15084,7 @@
       <c r="R35" s="31"/>
       <c r="S35" s="14"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="33"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -15052,7 +15113,7 @@
       <c r="R36" s="31"/>
       <c r="S36" s="14"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="33"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -15081,7 +15142,7 @@
       <c r="R37" s="31"/>
       <c r="S37" s="14"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="33"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -15110,7 +15171,7 @@
       <c r="R38" s="31"/>
       <c r="S38" s="14"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="33"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -15139,7 +15200,7 @@
       <c r="R39" s="31"/>
       <c r="S39" s="14"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="33"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -15168,7 +15229,7 @@
       <c r="R40" s="31"/>
       <c r="S40" s="14"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="34" t="s">
         <v>119</v>
       </c>
@@ -15180,42 +15241,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S8 A9:R9 A10:S41">
-    <cfRule type="expression" dxfId="123" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="522" priority="7" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="521" priority="8" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="520" priority="9" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="519" priority="10" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="518" priority="11" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="517" priority="12" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9">
-    <cfRule type="expression" dxfId="117" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="516" priority="1" stopIfTrue="1">
       <formula>$Q9="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="515" priority="2" stopIfTrue="1">
       <formula>$Q9="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="514" priority="3" stopIfTrue="1">
       <formula>$Q9="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="513" priority="4" stopIfTrue="1">
       <formula>$Q9="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="512" priority="5" stopIfTrue="1">
       <formula>$Q9="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="511" priority="6" stopIfTrue="1">
       <formula>$Q9="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15249,32 +15310,32 @@
       <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.53515625" style="32" customWidth="1"/>
-    <col min="2" max="2" width="22.46484375" customWidth="1"/>
-    <col min="3" max="3" width="19.37109375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="18.96484375" customWidth="1"/>
-    <col min="5" max="5" width="37.53125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="17.08203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16.41015625" style="26" customWidth="1"/>
-    <col min="8" max="8" width="39.546875" customWidth="1"/>
-    <col min="9" max="9" width="19.234375" style="28" customWidth="1"/>
-    <col min="10" max="10" width="11.56640625" customWidth="1"/>
-    <col min="11" max="11" width="11.8359375" style="10" customWidth="1"/>
-    <col min="12" max="12" width="17.484375" customWidth="1"/>
-    <col min="13" max="13" width="16.27734375" style="10" customWidth="1"/>
-    <col min="14" max="14" width="12.5078125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="11.8359375" style="10" customWidth="1"/>
-    <col min="16" max="16" width="15.46875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="25.421875" style="12" customWidth="1"/>
-    <col min="18" max="18" width="36.58984375" style="32" customWidth="1"/>
-    <col min="19" max="19" width="47.62109375" style="15" customWidth="1"/>
-    <col min="28" max="28" width="17.75390625" customWidth="1"/>
+    <col min="1" max="1" width="30.54296875" style="32" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="37.54296875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.36328125" style="26" customWidth="1"/>
+    <col min="8" max="8" width="39.54296875" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" style="28" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="17.453125" customWidth="1"/>
+    <col min="13" max="13" width="16.26953125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" style="9" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="15.453125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="25.453125" style="12" customWidth="1"/>
+    <col min="18" max="18" width="36.54296875" style="32" customWidth="1"/>
+    <col min="19" max="19" width="47.6328125" style="15" customWidth="1"/>
+    <col min="28" max="28" width="17.7265625" customWidth="1"/>
     <col min="29" max="29" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -15342,7 +15403,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="33">
         <v>45719</v>
       </c>
@@ -15400,7 +15461,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="33">
         <v>45720</v>
       </c>
@@ -15453,7 +15514,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="33">
         <v>45720</v>
       </c>
@@ -15507,7 +15568,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="31">
         <v>45723</v>
       </c>
@@ -15563,7 +15624,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="31">
         <v>45726</v>
       </c>
@@ -15609,7 +15670,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="31">
         <v>45726</v>
       </c>
@@ -15660,7 +15721,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="31">
         <v>45726</v>
       </c>
@@ -15699,7 +15760,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="14"/>
     </row>
-    <row r="9" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="31">
         <v>45727</v>
       </c>
@@ -15748,7 +15809,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="31">
         <v>45728</v>
       </c>
@@ -15799,7 +15860,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="31">
         <v>45728</v>
       </c>
@@ -15838,7 +15899,7 @@
       <c r="R11" s="31"/>
       <c r="S11" s="14"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="31">
         <v>45733</v>
       </c>
@@ -15883,7 +15944,7 @@
       <c r="R12" s="31"/>
       <c r="S12" s="14"/>
     </row>
-    <row r="13" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="31">
         <v>45733</v>
       </c>
@@ -15932,7 +15993,7 @@
       <c r="R13" s="31"/>
       <c r="S13" s="14"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="31">
         <v>45734</v>
       </c>
@@ -15977,7 +16038,7 @@
       <c r="R14" s="31"/>
       <c r="S14" s="14"/>
     </row>
-    <row r="15" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="31">
         <v>45734</v>
       </c>
@@ -16018,7 +16079,7 @@
       <c r="R15" s="31"/>
       <c r="S15" s="14"/>
     </row>
-    <row r="16" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="31">
         <v>45734</v>
       </c>
@@ -16070,7 +16131,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="31">
         <v>45735</v>
       </c>
@@ -16111,7 +16172,7 @@
       <c r="R17" s="31"/>
       <c r="S17" s="14"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="31">
         <v>45735</v>
       </c>
@@ -16159,7 +16220,7 @@
       <c r="R18" s="31"/>
       <c r="S18" s="14"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="31">
         <v>45735</v>
       </c>
@@ -16207,7 +16268,7 @@
       <c r="R19" s="31"/>
       <c r="S19" s="14"/>
     </row>
-    <row r="20" spans="1:19" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="31">
         <v>45735</v>
       </c>
@@ -16254,7 +16315,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="31">
         <v>45737</v>
       </c>
@@ -16309,7 +16370,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="31">
         <v>45741</v>
       </c>
@@ -16354,7 +16415,7 @@
       <c r="R22" s="31"/>
       <c r="S22" s="14"/>
     </row>
-    <row r="23" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="31">
         <v>45741</v>
       </c>
@@ -16399,7 +16460,7 @@
       <c r="R23" s="31"/>
       <c r="S23" s="14"/>
     </row>
-    <row r="24" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="31">
         <v>45742</v>
       </c>
@@ -16444,7 +16505,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="31">
         <v>45743</v>
       </c>
@@ -16496,7 +16557,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="31">
         <v>45743</v>
       </c>
@@ -16541,7 +16602,7 @@
       <c r="R26" s="31"/>
       <c r="S26" s="14"/>
     </row>
-    <row r="27" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="31">
         <v>45745</v>
       </c>
@@ -16586,7 +16647,7 @@
       <c r="R27" s="31"/>
       <c r="S27" s="14"/>
     </row>
-    <row r="28" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="31">
         <v>45745</v>
       </c>
@@ -16629,7 +16690,7 @@
       <c r="R28" s="31"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="31">
         <v>45747</v>
       </c>
@@ -16678,7 +16739,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="31"/>
       <c r="B30" s="1"/>
       <c r="C30" s="14"/>
@@ -16707,7 +16768,7 @@
       <c r="R30" s="31"/>
       <c r="S30" s="14"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="31"/>
       <c r="B31" s="1"/>
       <c r="C31" s="14"/>
@@ -16736,7 +16797,7 @@
       <c r="R31" s="31"/>
       <c r="S31" s="14"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="31"/>
       <c r="B32" s="1"/>
       <c r="C32" s="14"/>
@@ -16765,7 +16826,7 @@
       <c r="R32" s="31"/>
       <c r="S32" s="14"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="31"/>
       <c r="B33" s="1"/>
       <c r="C33" s="14"/>
@@ -16794,7 +16855,7 @@
       <c r="R33" s="31"/>
       <c r="S33" s="14"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="31"/>
       <c r="B34" s="1"/>
       <c r="C34" s="14"/>
@@ -16823,7 +16884,7 @@
       <c r="R34" s="31"/>
       <c r="S34" s="14"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="31"/>
       <c r="B35" s="1"/>
       <c r="C35" s="14"/>
@@ -16852,7 +16913,7 @@
       <c r="R35" s="31"/>
       <c r="S35" s="14"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="31"/>
       <c r="B36" s="1"/>
       <c r="C36" s="14"/>
@@ -16881,7 +16942,7 @@
       <c r="R36" s="31"/>
       <c r="S36" s="14"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="31"/>
       <c r="B37" s="1"/>
       <c r="C37" s="14"/>
@@ -16910,7 +16971,7 @@
       <c r="R37" s="31"/>
       <c r="S37" s="14"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="31"/>
       <c r="B38" s="1"/>
       <c r="C38" s="14"/>
@@ -16939,7 +17000,7 @@
       <c r="R38" s="31"/>
       <c r="S38" s="14"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="31"/>
       <c r="B39" s="1"/>
       <c r="C39" s="14"/>
@@ -16968,7 +17029,7 @@
       <c r="R39" s="31"/>
       <c r="S39" s="14"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="31"/>
       <c r="B40" s="1"/>
       <c r="C40" s="14"/>
@@ -16997,7 +17058,7 @@
       <c r="R40" s="31"/>
       <c r="S40" s="14"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="32" t="s">
         <v>119</v>
       </c>
@@ -17011,22 +17072,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="111" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="471" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="470" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="469" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="468" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="467" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="466" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17060,32 +17121,32 @@
       <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.19140625" style="34" customWidth="1"/>
-    <col min="2" max="2" width="23.5390625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="17.484375" style="15" customWidth="1"/>
+    <col min="1" max="1" width="29.1796875" style="34" customWidth="1"/>
+    <col min="2" max="2" width="23.54296875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" style="15" customWidth="1"/>
     <col min="4" max="4" width="16.54296875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="46.2734375" style="15" customWidth="1"/>
-    <col min="6" max="6" width="17.08203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16.41015625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="39.546875" customWidth="1"/>
-    <col min="9" max="9" width="19.234375" style="20" customWidth="1"/>
-    <col min="10" max="10" width="11.56640625" style="10" customWidth="1"/>
-    <col min="11" max="11" width="11.8359375" style="10" customWidth="1"/>
-    <col min="12" max="12" width="17.484375" customWidth="1"/>
-    <col min="13" max="13" width="16.27734375" style="10" customWidth="1"/>
-    <col min="14" max="14" width="12.5078125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="11.8359375" style="10" customWidth="1"/>
-    <col min="16" max="16" width="15.46875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="25.421875" style="12" customWidth="1"/>
-    <col min="18" max="18" width="36.58984375" style="32" customWidth="1"/>
-    <col min="19" max="19" width="47.62109375" style="15" customWidth="1"/>
-    <col min="28" max="28" width="17.75390625" customWidth="1"/>
+    <col min="5" max="5" width="46.26953125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.36328125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="39.54296875" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" style="20" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="17.453125" customWidth="1"/>
+    <col min="13" max="13" width="16.26953125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" style="9" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="15.453125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="25.453125" style="12" customWidth="1"/>
+    <col min="18" max="18" width="36.54296875" style="32" customWidth="1"/>
+    <col min="19" max="19" width="47.6328125" style="15" customWidth="1"/>
+    <col min="28" max="28" width="17.7265625" customWidth="1"/>
     <col min="29" max="29" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -17153,7 +17214,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="68.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="33">
         <v>45749</v>
       </c>
@@ -17217,7 +17278,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" s="33">
         <v>45750</v>
       </c>
@@ -17271,7 +17332,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="33">
         <v>45750</v>
       </c>
@@ -17329,7 +17390,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="33">
         <v>45761</v>
       </c>
@@ -17384,7 +17445,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="33">
         <v>45762</v>
       </c>
@@ -17438,7 +17499,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="33">
         <v>45767</v>
       </c>
@@ -17492,7 +17553,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="33">
         <v>45768</v>
       </c>
@@ -17535,7 +17596,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" s="33">
         <v>45769</v>
       </c>
@@ -17587,7 +17648,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="33">
         <v>45770</v>
       </c>
@@ -17639,7 +17700,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="33">
         <v>45770</v>
       </c>
@@ -17690,7 +17751,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="33">
         <v>45771</v>
       </c>
@@ -17731,7 +17792,7 @@
       <c r="R12" s="31"/>
       <c r="S12" s="14"/>
     </row>
-    <row r="13" spans="1:30" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A13" s="33">
         <v>45771</v>
       </c>
@@ -17783,7 +17844,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A14" s="33">
         <v>45772</v>
       </c>
@@ -17832,7 +17893,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A15" s="33">
         <v>45775</v>
       </c>
@@ -17889,7 +17950,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="33">
         <v>45775</v>
       </c>
@@ -17940,7 +18001,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="33">
         <v>45777</v>
       </c>
@@ -17997,7 +18058,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="33"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -18026,7 +18087,7 @@
       <c r="R18" s="31"/>
       <c r="S18" s="14"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="33"/>
       <c r="B19" s="14"/>
       <c r="C19" s="30"/>
@@ -18055,7 +18116,7 @@
       <c r="R19" s="31"/>
       <c r="S19" s="14"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="33"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -18084,7 +18145,7 @@
       <c r="R20" s="31"/>
       <c r="S20" s="14"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="33"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -18113,7 +18174,7 @@
       <c r="R21" s="31"/>
       <c r="S21" s="14"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="33"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -18142,7 +18203,7 @@
       <c r="R22" s="31"/>
       <c r="S22" s="14"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="33"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -18171,7 +18232,7 @@
       <c r="R23" s="31"/>
       <c r="S23" s="14"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="33"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -18200,7 +18261,7 @@
       <c r="R24" s="31"/>
       <c r="S24" s="14"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="33"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -18229,7 +18290,7 @@
       <c r="R25" s="31"/>
       <c r="S25" s="14"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="33"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -18258,7 +18319,7 @@
       <c r="R26" s="31"/>
       <c r="S26" s="14"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="33"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -18287,7 +18348,7 @@
       <c r="R27" s="31"/>
       <c r="S27" s="14"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="33"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -18316,7 +18377,7 @@
       <c r="R28" s="31"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="33"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -18345,7 +18406,7 @@
       <c r="R29" s="31"/>
       <c r="S29" s="14"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="33"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -18374,7 +18435,7 @@
       <c r="R30" s="31"/>
       <c r="S30" s="14"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="33"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -18403,7 +18464,7 @@
       <c r="R31" s="31"/>
       <c r="S31" s="14"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="33"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -18432,7 +18493,7 @@
       <c r="R32" s="31"/>
       <c r="S32" s="14"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="33"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -18461,7 +18522,7 @@
       <c r="R33" s="31"/>
       <c r="S33" s="14"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="33"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -18490,7 +18551,7 @@
       <c r="R34" s="31"/>
       <c r="S34" s="14"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="33"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -18519,7 +18580,7 @@
       <c r="R35" s="31"/>
       <c r="S35" s="14"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="33"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -18548,7 +18609,7 @@
       <c r="R36" s="31"/>
       <c r="S36" s="14"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="33"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -18577,7 +18638,7 @@
       <c r="R37" s="31"/>
       <c r="S37" s="14"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="33"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -18606,7 +18667,7 @@
       <c r="R38" s="31"/>
       <c r="S38" s="14"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="33"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -18635,7 +18696,7 @@
       <c r="R39" s="31"/>
       <c r="S39" s="14"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="33"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -18664,7 +18725,7 @@
       <c r="R40" s="31"/>
       <c r="S40" s="14"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="34" t="s">
         <v>119</v>
       </c>
@@ -18676,42 +18737,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S12 A13:R15 A16:S41">
-    <cfRule type="expression" dxfId="105" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="429" priority="19" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="428" priority="20" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="427" priority="21" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="426" priority="22" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="425" priority="23" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="424" priority="24" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13:S15">
-    <cfRule type="expression" dxfId="99" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="423" priority="1" stopIfTrue="1">
       <formula>$Q13="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="422" priority="2" stopIfTrue="1">
       <formula>$Q13="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="421" priority="3" stopIfTrue="1">
       <formula>$Q13="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="420" priority="4" stopIfTrue="1">
       <formula>$Q13="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="419" priority="5" stopIfTrue="1">
       <formula>$Q13="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="418" priority="6" stopIfTrue="1">
       <formula>$Q13="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18745,32 +18806,32 @@
       <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.25" style="33" customWidth="1"/>
-    <col min="2" max="2" width="22.46484375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="21.5234375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="18.5625" customWidth="1"/>
-    <col min="5" max="5" width="34.70703125" customWidth="1"/>
-    <col min="6" max="6" width="17.08203125" style="35" customWidth="1"/>
-    <col min="7" max="7" width="16.41015625" style="38" customWidth="1"/>
-    <col min="8" max="8" width="39.546875" customWidth="1"/>
-    <col min="9" max="9" width="19.234375" style="26" customWidth="1"/>
-    <col min="10" max="10" width="11.56640625" style="10" customWidth="1"/>
-    <col min="11" max="11" width="11.8359375" style="10" customWidth="1"/>
-    <col min="12" max="12" width="17.484375" customWidth="1"/>
-    <col min="13" max="13" width="16.27734375" style="10" customWidth="1"/>
-    <col min="14" max="14" width="12.5078125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="11.8359375" style="10" customWidth="1"/>
-    <col min="16" max="16" width="15.46875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="25.421875" style="12" customWidth="1"/>
-    <col min="18" max="18" width="36.58984375" style="32" customWidth="1"/>
-    <col min="19" max="19" width="47.62109375" style="15" customWidth="1"/>
-    <col min="28" max="28" width="17.75390625" customWidth="1"/>
+    <col min="1" max="1" width="28.26953125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" customWidth="1"/>
+    <col min="5" max="5" width="34.7265625" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" style="35" customWidth="1"/>
+    <col min="7" max="7" width="16.36328125" style="38" customWidth="1"/>
+    <col min="8" max="8" width="39.54296875" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" style="26" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="17.453125" customWidth="1"/>
+    <col min="13" max="13" width="16.26953125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" style="9" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="15.453125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="25.453125" style="12" customWidth="1"/>
+    <col min="18" max="18" width="36.54296875" style="32" customWidth="1"/>
+    <col min="19" max="19" width="47.6328125" style="15" customWidth="1"/>
+    <col min="28" max="28" width="17.7265625" customWidth="1"/>
     <col min="29" max="29" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -18838,7 +18899,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="33">
         <v>45779</v>
       </c>
@@ -18903,7 +18964,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A3" s="33">
         <v>45782</v>
       </c>
@@ -18958,7 +19019,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A4" s="33">
         <v>45782</v>
       </c>
@@ -19017,7 +19078,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A5" s="33">
         <v>45783</v>
       </c>
@@ -19072,7 +19133,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="33">
         <v>45785</v>
       </c>
@@ -19127,7 +19188,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="33">
         <v>45789</v>
       </c>
@@ -19188,7 +19249,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="33">
         <v>45790</v>
       </c>
@@ -19244,7 +19305,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="33">
         <v>45791</v>
       </c>
@@ -19294,7 +19355,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="33">
         <v>45791</v>
       </c>
@@ -19350,7 +19411,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="33">
         <v>45798</v>
       </c>
@@ -19406,7 +19467,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="33">
         <v>45799</v>
       </c>
@@ -19458,7 +19519,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="33">
         <v>45803</v>
       </c>
@@ -19510,7 +19571,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="33">
         <v>45804</v>
       </c>
@@ -19552,7 +19613,7 @@
       <c r="R14" s="31"/>
       <c r="S14" s="14"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="33">
         <v>45804</v>
       </c>
@@ -19604,7 +19665,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="33">
         <v>45807</v>
       </c>
@@ -19650,7 +19711,7 @@
       <c r="R16" s="31"/>
       <c r="S16" s="14"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="1"/>
@@ -19679,7 +19740,7 @@
       <c r="R17" s="31"/>
       <c r="S17" s="14"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="1"/>
@@ -19708,7 +19769,7 @@
       <c r="R18" s="31"/>
       <c r="S18" s="14"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="1"/>
@@ -19737,7 +19798,7 @@
       <c r="R19" s="31"/>
       <c r="S19" s="14"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="1"/>
@@ -19766,7 +19827,7 @@
       <c r="R20" s="31"/>
       <c r="S20" s="14"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="1"/>
@@ -19795,7 +19856,7 @@
       <c r="R21" s="31"/>
       <c r="S21" s="14"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="1"/>
@@ -19824,7 +19885,7 @@
       <c r="R22" s="31"/>
       <c r="S22" s="14"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="1"/>
@@ -19853,7 +19914,7 @@
       <c r="R23" s="31"/>
       <c r="S23" s="14"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="1"/>
@@ -19882,7 +19943,7 @@
       <c r="R24" s="31"/>
       <c r="S24" s="14"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="1"/>
@@ -19911,7 +19972,7 @@
       <c r="R25" s="31"/>
       <c r="S25" s="14"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="1"/>
@@ -19940,7 +20001,7 @@
       <c r="R26" s="31"/>
       <c r="S26" s="14"/>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="1"/>
@@ -19969,7 +20030,7 @@
       <c r="R27" s="31"/>
       <c r="S27" s="14"/>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="1"/>
@@ -19998,7 +20059,7 @@
       <c r="R28" s="31"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="1"/>
@@ -20027,7 +20088,7 @@
       <c r="R29" s="31"/>
       <c r="S29" s="14"/>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="1"/>
@@ -20056,7 +20117,7 @@
       <c r="R30" s="31"/>
       <c r="S30" s="14"/>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="1"/>
@@ -20085,7 +20146,7 @@
       <c r="R31" s="31"/>
       <c r="S31" s="14"/>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="1"/>
@@ -20114,7 +20175,7 @@
       <c r="R32" s="31"/>
       <c r="S32" s="14"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="1"/>
@@ -20143,7 +20204,7 @@
       <c r="R33" s="31"/>
       <c r="S33" s="14"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="1"/>
@@ -20172,7 +20233,7 @@
       <c r="R34" s="31"/>
       <c r="S34" s="14"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="1"/>
@@ -20201,7 +20262,7 @@
       <c r="R35" s="31"/>
       <c r="S35" s="14"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="1"/>
@@ -20230,7 +20291,7 @@
       <c r="R36" s="31"/>
       <c r="S36" s="14"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="1"/>
@@ -20259,7 +20320,7 @@
       <c r="R37" s="31"/>
       <c r="S37" s="14"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
       <c r="D38" s="1"/>
@@ -20288,7 +20349,7 @@
       <c r="R38" s="31"/>
       <c r="S38" s="14"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
       <c r="D39" s="1"/>
@@ -20317,7 +20378,7 @@
       <c r="R39" s="31"/>
       <c r="S39" s="14"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="1"/>
@@ -20346,7 +20407,7 @@
       <c r="R40" s="31"/>
       <c r="S40" s="14"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="33" t="s">
         <v>119</v>
       </c>
@@ -20360,122 +20421,122 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="93" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="379" priority="36" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="378" priority="35" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="377" priority="34" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="376" priority="33" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="375" priority="32" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="374" priority="31" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="87" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="373" priority="19" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="372" priority="24" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="371" priority="23" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="370" priority="22" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="369" priority="21" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="368" priority="20" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="81" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="367" priority="13" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="366" priority="14" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="365" priority="15" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="364" priority="16" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="363" priority="17" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="362" priority="18" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2 F2:S2 A3:S4 A5:R5 A6:S41">
-    <cfRule type="expression" dxfId="75" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="361" priority="42" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="360" priority="37" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="359" priority="38" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="358" priority="39" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="357" priority="40" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="356" priority="41" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="69" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="355" priority="12" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="354" priority="11" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="353" priority="10" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="352" priority="9" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="351" priority="8" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="350" priority="7" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5">
-    <cfRule type="expression" dxfId="63" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="349" priority="6" stopIfTrue="1">
       <formula>$Q5="CANCELADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="348" priority="5" stopIfTrue="1">
       <formula>$Q5="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="347" priority="4" stopIfTrue="1">
       <formula>$Q5="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="346" priority="3" stopIfTrue="1">
       <formula>$Q5="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="345" priority="2" stopIfTrue="1">
       <formula>$Q5="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="344" priority="1" stopIfTrue="1">
       <formula>$Q5="YA RELACIONADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20509,32 +20570,32 @@
       <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.1484375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.46484375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="19.37109375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="17.08203125" customWidth="1"/>
-    <col min="5" max="5" width="34.70703125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="17.08203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16.41015625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="39.546875" customWidth="1"/>
-    <col min="9" max="9" width="19.234375" style="10" customWidth="1"/>
-    <col min="10" max="10" width="11.56640625" style="10" customWidth="1"/>
-    <col min="11" max="11" width="11.8359375" style="10" customWidth="1"/>
-    <col min="12" max="12" width="17.484375" customWidth="1"/>
-    <col min="13" max="13" width="16.27734375" style="10" customWidth="1"/>
-    <col min="14" max="14" width="12.5078125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="11.8359375" style="10" customWidth="1"/>
-    <col min="16" max="16" width="15.46875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="25.421875" style="12" customWidth="1"/>
-    <col min="18" max="18" width="36.58984375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="47.62109375" style="15" customWidth="1"/>
-    <col min="28" max="28" width="17.75390625" customWidth="1"/>
+    <col min="1" max="1" width="32.1796875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="17.08984375" customWidth="1"/>
+    <col min="5" max="5" width="34.7265625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.36328125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="39.54296875" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="17.453125" customWidth="1"/>
+    <col min="13" max="13" width="16.26953125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" style="9" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="15.453125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="25.453125" style="12" customWidth="1"/>
+    <col min="18" max="18" width="36.54296875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="47.6328125" style="15" customWidth="1"/>
+    <col min="28" max="28" width="17.7265625" customWidth="1"/>
     <col min="29" max="29" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -20602,7 +20663,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>45811</v>
       </c>
@@ -20662,7 +20723,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>45812</v>
       </c>
@@ -20715,7 +20776,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>45815</v>
       </c>
@@ -20769,7 +20830,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>45818</v>
       </c>
@@ -20824,7 +20885,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>45818</v>
       </c>
@@ -20880,7 +20941,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>45819</v>
       </c>
@@ -20934,7 +20995,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>45820</v>
       </c>
@@ -20988,7 +21049,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>45820</v>
       </c>
@@ -21037,7 +21098,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>45824</v>
       </c>
@@ -21094,7 +21155,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="40">
         <v>45825</v>
       </c>
@@ -21137,7 +21198,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="14"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="40">
         <v>45826</v>
       </c>
@@ -21188,7 +21249,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>45826</v>
       </c>
@@ -21237,7 +21298,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>45826</v>
       </c>
@@ -21288,7 +21349,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>45827</v>
       </c>
@@ -21339,7 +21400,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>45827</v>
       </c>
@@ -21384,7 +21445,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="14"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>45828</v>
       </c>
@@ -21435,7 +21496,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>45828</v>
       </c>
@@ -21478,7 +21539,7 @@
       <c r="R18" s="2"/>
       <c r="S18" s="14"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>45832</v>
       </c>
@@ -21529,7 +21590,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>45832</v>
       </c>
@@ -21582,7 +21643,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>45833</v>
       </c>
@@ -21637,7 +21698,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>45834</v>
       </c>
@@ -21687,7 +21748,7 @@
       <c r="R22" s="2"/>
       <c r="S22" s="14"/>
     </row>
-    <row r="23" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>45834</v>
       </c>
@@ -21742,7 +21803,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>45835</v>
       </c>
@@ -21793,7 +21854,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>45836</v>
       </c>
@@ -21844,7 +21905,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -21870,7 +21931,7 @@
       <c r="R26" s="2"/>
       <c r="S26" s="14"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -21899,7 +21960,7 @@
       <c r="R27" s="2"/>
       <c r="S27" s="14"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -21928,7 +21989,7 @@
       <c r="R28" s="2"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -21957,7 +22018,7 @@
       <c r="R29" s="2"/>
       <c r="S29" s="14"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -21986,7 +22047,7 @@
       <c r="R30" s="2"/>
       <c r="S30" s="14"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -22015,7 +22076,7 @@
       <c r="R31" s="2"/>
       <c r="S31" s="14"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -22044,7 +22105,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="14"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -22073,7 +22134,7 @@
       <c r="R33" s="2"/>
       <c r="S33" s="14"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -22102,7 +22163,7 @@
       <c r="R34" s="2"/>
       <c r="S34" s="14"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -22131,7 +22192,7 @@
       <c r="R35" s="2"/>
       <c r="S35" s="14"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -22160,7 +22221,7 @@
       <c r="R36" s="2"/>
       <c r="S36" s="14"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -22189,7 +22250,7 @@
       <c r="R37" s="2"/>
       <c r="S37" s="14"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -22218,7 +22279,7 @@
       <c r="R38" s="2"/>
       <c r="S38" s="14"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -22247,7 +22308,7 @@
       <c r="R39" s="2"/>
       <c r="S39" s="14"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -22276,7 +22337,7 @@
       <c r="R40" s="2"/>
       <c r="S40" s="14"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -22305,7 +22366,7 @@
       <c r="R41" s="2"/>
       <c r="S41" s="14"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>119</v>
       </c>
@@ -22318,22 +22379,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S42">
-    <cfRule type="expression" dxfId="57" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="306" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="305" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="304" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="303" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="302" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="301" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22367,32 +22428,32 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.1484375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29.45703125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="20.17578125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="18.6953125" customWidth="1"/>
-    <col min="5" max="5" width="34.70703125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="17.08203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16.41015625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="39.546875" customWidth="1"/>
-    <col min="9" max="9" width="19.234375" customWidth="1"/>
-    <col min="10" max="10" width="11.56640625" style="18" customWidth="1"/>
-    <col min="11" max="11" width="11.8359375" style="10" customWidth="1"/>
-    <col min="12" max="12" width="17.484375" customWidth="1"/>
-    <col min="13" max="13" width="16.27734375" style="10" customWidth="1"/>
-    <col min="14" max="14" width="12.5078125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="11.8359375" style="10" customWidth="1"/>
-    <col min="16" max="16" width="15.46875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="25.421875" style="12" customWidth="1"/>
-    <col min="18" max="18" width="36.58984375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="47.62109375" style="15" customWidth="1"/>
-    <col min="28" max="28" width="17.75390625" customWidth="1"/>
+    <col min="1" max="1" width="32.1796875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.453125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="18.7265625" customWidth="1"/>
+    <col min="5" max="5" width="34.7265625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.36328125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="39.54296875" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" style="18" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="17.453125" customWidth="1"/>
+    <col min="13" max="13" width="16.26953125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" style="9" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="15.453125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="25.453125" style="12" customWidth="1"/>
+    <col min="18" max="18" width="36.54296875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="47.6328125" style="15" customWidth="1"/>
+    <col min="28" max="28" width="17.7265625" customWidth="1"/>
     <col min="29" max="29" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -22460,7 +22521,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>45840</v>
       </c>
@@ -22520,7 +22581,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>45841</v>
       </c>
@@ -22566,7 +22627,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>45841</v>
       </c>
@@ -22619,7 +22680,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>45842</v>
       </c>
@@ -22673,7 +22734,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>45846</v>
       </c>
@@ -22733,7 +22794,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>45848</v>
       </c>
@@ -22788,7 +22849,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>45849</v>
       </c>
@@ -22831,7 +22892,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="14"/>
     </row>
-    <row r="9" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>45852</v>
       </c>
@@ -22888,7 +22949,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>45852</v>
       </c>
@@ -22940,7 +23001,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="68.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>45853</v>
       </c>
@@ -22995,7 +23056,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>45854</v>
       </c>
@@ -23046,7 +23107,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>45859</v>
       </c>
@@ -23097,7 +23158,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>45859</v>
       </c>
@@ -23148,7 +23209,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>45860</v>
       </c>
@@ -23199,7 +23260,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>45862</v>
       </c>
@@ -23242,7 +23303,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="14"/>
     </row>
-    <row r="17" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>45866</v>
       </c>
@@ -23294,7 +23355,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>45866</v>
       </c>
@@ -23344,7 +23405,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="68.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>45866</v>
       </c>
@@ -23395,7 +23456,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>45866</v>
       </c>
@@ -23447,7 +23508,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>45868</v>
       </c>
@@ -23504,7 +23565,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>45869</v>
       </c>
@@ -23555,7 +23616,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -23584,7 +23645,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="14"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -23613,7 +23674,7 @@
       <c r="R24" s="2"/>
       <c r="S24" s="14"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -23642,7 +23703,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="14"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -23671,7 +23732,7 @@
       <c r="R26" s="2"/>
       <c r="S26" s="14"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -23700,7 +23761,7 @@
       <c r="R27" s="2"/>
       <c r="S27" s="14"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -23729,7 +23790,7 @@
       <c r="R28" s="2"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -23758,7 +23819,7 @@
       <c r="R29" s="2"/>
       <c r="S29" s="14"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -23787,7 +23848,7 @@
       <c r="R30" s="2"/>
       <c r="S30" s="14"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -23816,7 +23877,7 @@
       <c r="R31" s="2"/>
       <c r="S31" s="14"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -23845,7 +23906,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="14"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -23874,7 +23935,7 @@
       <c r="R33" s="2"/>
       <c r="S33" s="14"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -23903,7 +23964,7 @@
       <c r="R34" s="2"/>
       <c r="S34" s="14"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -23932,7 +23993,7 @@
       <c r="R35" s="2"/>
       <c r="S35" s="14"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -23961,7 +24022,7 @@
       <c r="R36" s="2"/>
       <c r="S36" s="14"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -23990,7 +24051,7 @@
       <c r="R37" s="2"/>
       <c r="S37" s="14"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -24019,7 +24080,7 @@
       <c r="R38" s="2"/>
       <c r="S38" s="14"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -24048,7 +24109,7 @@
       <c r="R39" s="2"/>
       <c r="S39" s="14"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -24077,7 +24138,7 @@
       <c r="R40" s="2"/>
       <c r="S40" s="14"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>119</v>
       </c>
@@ -24092,22 +24153,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="51" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="262" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="261" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="260" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="259" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="258" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="257" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24141,32 +24202,32 @@
       <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.98046875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.90234375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="34.70703125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="17.08203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16.41015625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="39.546875" style="15" customWidth="1"/>
-    <col min="9" max="9" width="19.234375" style="10" customWidth="1"/>
-    <col min="10" max="10" width="11.56640625" style="10" customWidth="1"/>
-    <col min="11" max="11" width="11.8359375" style="10" customWidth="1"/>
-    <col min="12" max="12" width="17.484375" customWidth="1"/>
-    <col min="13" max="13" width="16.27734375" style="10" customWidth="1"/>
-    <col min="14" max="14" width="12.5078125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="11.8359375" style="10" customWidth="1"/>
-    <col min="16" max="16" width="15.46875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="25.421875" style="12" customWidth="1"/>
-    <col min="18" max="18" width="36.58984375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="65.2421875" style="15" customWidth="1"/>
-    <col min="28" max="28" width="17.75390625" customWidth="1"/>
+    <col min="1" max="1" width="28" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.90625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="34.7265625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.36328125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="39.54296875" style="15" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="17.453125" customWidth="1"/>
+    <col min="13" max="13" width="16.26953125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" style="9" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="15.453125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="25.453125" style="12" customWidth="1"/>
+    <col min="18" max="18" width="36.54296875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="65.26953125" style="15" customWidth="1"/>
+    <col min="28" max="28" width="17.7265625" customWidth="1"/>
     <col min="29" max="29" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -24234,7 +24295,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>45870</v>
       </c>
@@ -24295,7 +24356,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>45873</v>
       </c>
@@ -24350,7 +24411,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>45873</v>
       </c>
@@ -24403,7 +24464,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>45874</v>
       </c>
@@ -24456,7 +24517,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>45875</v>
       </c>
@@ -24508,7 +24569,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>45880</v>
       </c>
@@ -24564,7 +24625,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>45880</v>
       </c>
@@ -24605,7 +24666,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="14"/>
     </row>
-    <row r="9" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>45881</v>
       </c>
@@ -24658,7 +24719,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>45882</v>
       </c>
@@ -24701,7 +24762,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="14"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>45882</v>
       </c>
@@ -24742,7 +24803,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="14"/>
     </row>
-    <row r="12" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>45884</v>
       </c>
@@ -24783,7 +24844,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="14"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>45884</v>
       </c>
@@ -24826,7 +24887,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="14"/>
     </row>
-    <row r="14" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>45888</v>
       </c>
@@ -24877,7 +24938,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>45888</v>
       </c>
@@ -24928,7 +24989,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>45888</v>
       </c>
@@ -24973,7 +25034,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>45890</v>
       </c>
@@ -25019,7 +25080,7 @@
       <c r="R17" s="2"/>
       <c r="S17" s="14"/>
     </row>
-    <row r="18" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>45890</v>
       </c>
@@ -25071,7 +25132,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>45891</v>
       </c>
@@ -25112,7 +25173,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="14"/>
     </row>
-    <row r="20" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>45894</v>
       </c>
@@ -25162,7 +25223,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>45895</v>
       </c>
@@ -25203,7 +25264,7 @@
       <c r="R21" s="2"/>
       <c r="S21" s="14"/>
     </row>
-    <row r="22" spans="1:19" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" ht="58" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>45895</v>
       </c>
@@ -25258,7 +25319,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" ht="58" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>45896</v>
       </c>
@@ -25313,7 +25374,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>45898</v>
       </c>
@@ -25367,7 +25428,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>45898</v>
       </c>
@@ -25419,7 +25480,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>45898</v>
       </c>
@@ -25470,7 +25531,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -25499,7 +25560,7 @@
       <c r="R27" s="2"/>
       <c r="S27" s="14"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -25528,7 +25589,7 @@
       <c r="R28" s="2"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -25557,7 +25618,7 @@
       <c r="R29" s="2"/>
       <c r="S29" s="14"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -25586,7 +25647,7 @@
       <c r="R30" s="2"/>
       <c r="S30" s="14"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -25615,7 +25676,7 @@
       <c r="R31" s="2"/>
       <c r="S31" s="14"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -25644,7 +25705,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="14"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -25673,7 +25734,7 @@
       <c r="R33" s="2"/>
       <c r="S33" s="14"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -25702,7 +25763,7 @@
       <c r="R34" s="2"/>
       <c r="S34" s="14"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -25731,7 +25792,7 @@
       <c r="R35" s="2"/>
       <c r="S35" s="14"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -25760,7 +25821,7 @@
       <c r="R36" s="2"/>
       <c r="S36" s="14"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -25789,7 +25850,7 @@
       <c r="R37" s="2"/>
       <c r="S37" s="14"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -25818,7 +25879,7 @@
       <c r="R38" s="2"/>
       <c r="S38" s="14"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -25847,7 +25908,7 @@
       <c r="R39" s="2"/>
       <c r="S39" s="14"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -25876,7 +25937,7 @@
       <c r="R40" s="2"/>
       <c r="S40" s="14"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>119</v>
       </c>
@@ -25888,22 +25949,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="45" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="218" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="217" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="214" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25937,32 +25998,32 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.9375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="22.59765625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="17.484375" customWidth="1"/>
-    <col min="5" max="5" width="51.65625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="17.08203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16.41015625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="43.8515625" style="15" customWidth="1"/>
-    <col min="9" max="9" width="19.234375" style="18" customWidth="1"/>
-    <col min="10" max="10" width="11.56640625" style="18" customWidth="1"/>
-    <col min="11" max="11" width="11.8359375" style="10" customWidth="1"/>
-    <col min="12" max="12" width="17.484375" customWidth="1"/>
-    <col min="13" max="13" width="16.27734375" style="10" customWidth="1"/>
-    <col min="14" max="14" width="12.5078125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="11.8359375" style="10" customWidth="1"/>
-    <col min="16" max="16" width="15.46875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="25.421875" style="12" customWidth="1"/>
-    <col min="18" max="18" width="36.58984375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="50.04296875" style="15" customWidth="1"/>
-    <col min="28" max="28" width="17.75390625" customWidth="1"/>
+    <col min="1" max="1" width="30.90625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27.7265625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="22.6328125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" customWidth="1"/>
+    <col min="5" max="5" width="51.6328125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.36328125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="43.81640625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" style="18" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" style="18" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="17.453125" customWidth="1"/>
+    <col min="13" max="13" width="16.26953125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" style="9" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="15.453125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="25.453125" style="12" customWidth="1"/>
+    <col min="18" max="18" width="36.54296875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="50" style="15" customWidth="1"/>
+    <col min="28" max="28" width="17.7265625" customWidth="1"/>
     <col min="29" max="29" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -26030,7 +26091,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>45902</v>
       </c>
@@ -26096,7 +26157,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>45904</v>
       </c>
@@ -26150,7 +26211,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>45905</v>
       </c>
@@ -26205,7 +26266,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>45909</v>
       </c>
@@ -26265,7 +26326,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>45911</v>
       </c>
@@ -26321,7 +26382,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>45911</v>
       </c>
@@ -26375,7 +26436,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>45912</v>
       </c>
@@ -26418,7 +26479,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="14"/>
     </row>
-    <row r="9" spans="1:30" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>45915</v>
       </c>
@@ -26471,7 +26532,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="68.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>45916</v>
       </c>
@@ -26526,7 +26587,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>45918</v>
       </c>
@@ -26577,7 +26638,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>45919</v>
       </c>
@@ -26628,7 +26689,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>45922</v>
       </c>
@@ -26681,7 +26742,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>45922</v>
       </c>
@@ -26736,7 +26797,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>45923</v>
       </c>
@@ -26791,7 +26852,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>45929</v>
       </c>
@@ -26837,7 +26898,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="14"/>
     </row>
-    <row r="17" spans="1:19" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>45929</v>
       </c>
@@ -26888,7 +26949,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>45930</v>
       </c>
@@ -26945,7 +27006,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>45930</v>
       </c>
@@ -27002,7 +27063,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -27022,7 +27083,7 @@
       <c r="R20" s="2"/>
       <c r="S20" s="14"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -27051,7 +27112,7 @@
       <c r="R21" s="2"/>
       <c r="S21" s="14"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -27080,7 +27141,7 @@
       <c r="R22" s="2"/>
       <c r="S22" s="14"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -27109,7 +27170,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="14"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -27138,7 +27199,7 @@
       <c r="R24" s="2"/>
       <c r="S24" s="14"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -27167,7 +27228,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="14"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -27196,7 +27257,7 @@
       <c r="R26" s="2"/>
       <c r="S26" s="14"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -27225,7 +27286,7 @@
       <c r="R27" s="2"/>
       <c r="S27" s="14"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -27254,7 +27315,7 @@
       <c r="R28" s="2"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -27283,7 +27344,7 @@
       <c r="R29" s="2"/>
       <c r="S29" s="14"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -27312,7 +27373,7 @@
       <c r="R30" s="2"/>
       <c r="S30" s="14"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -27341,7 +27402,7 @@
       <c r="R31" s="2"/>
       <c r="S31" s="14"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -27370,7 +27431,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="14"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -27399,7 +27460,7 @@
       <c r="R33" s="2"/>
       <c r="S33" s="14"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -27428,7 +27489,7 @@
       <c r="R34" s="2"/>
       <c r="S34" s="14"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -27457,7 +27518,7 @@
       <c r="R35" s="2"/>
       <c r="S35" s="14"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -27486,7 +27547,7 @@
       <c r="R36" s="2"/>
       <c r="S36" s="14"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -27515,7 +27576,7 @@
       <c r="R37" s="2"/>
       <c r="S37" s="14"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -27544,7 +27605,7 @@
       <c r="R38" s="2"/>
       <c r="S38" s="14"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -27573,7 +27634,7 @@
       <c r="R39" s="2"/>
       <c r="S39" s="14"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -27602,7 +27663,7 @@
       <c r="R40" s="2"/>
       <c r="S40" s="14"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>119</v>
       </c>
@@ -27614,22 +27675,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S41">
-    <cfRule type="expression" dxfId="39" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="1" stopIfTrue="1">
       <formula>$Q2="YA RELACIONADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="2" stopIfTrue="1">
       <formula>$Q2="COTIZACIÓN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="3" stopIfTrue="1">
       <formula>$Q2="NO PAGARON DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="4" stopIfTrue="1">
       <formula>$Q2="NO SE COBRA DOMICILIO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="5" stopIfTrue="1">
       <formula>$Q2="GARANTIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="6" stopIfTrue="1">
       <formula>$Q2="CANCELADO"</formula>
     </cfRule>
   </conditionalFormatting>
